--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="121">
   <si>
     <t>Supervisor</t>
   </si>
@@ -23,301 +23,358 @@
     <t>Special Focus</t>
   </si>
   <si>
-    <t>Arthur Conan Doyle</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>Richard Branson</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t>Gwyneth Paltrow</t>
-  </si>
-  <si>
-    <t>running a new-age website in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> raising new-age children in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> picking weird children names in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jason Voorhees</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers in Dagon-worshipping societies</t>
+    <t>running a multinational corporation in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling airline seats in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Jessica Parker</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manhattan and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Kerouac</t>
+  </si>
+  <si>
+    <t>the Beat generation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing beat fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boudicca</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jimmy Stewart</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Otto von Bismarck</t>
+  </si>
+  <si>
+    <t>German history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hans Moleman</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> killing teenagers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> slashing victims in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry Page</t>
-  </si>
-  <si>
-    <t>running a tech giant in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> building a search engine in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> performing Web searches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Xena</t>
-  </si>
-  <si>
-    <t>fighting for justice in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Michael</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Osama Bin Laden</t>
-  </si>
-  <si>
-    <t>plotting terrorist outrages in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> recruiting disaffected youths in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pac Man</t>
-  </si>
-  <si>
-    <t>eating power pellets in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> eluding electronic ghosts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> chasing electronic ghosts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Humphrey Bogart</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing tough guys in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Richard B. Riddick</t>
-  </si>
-  <si>
-    <t>evading mercenaries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Maguire</t>
-  </si>
-  <si>
-    <t>promoting greed in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jane Goodall</t>
-  </si>
-  <si>
-    <t>living amongst apes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>shocking radio listeners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ernest Hemingway</t>
-  </si>
-  <si>
-    <t>writing short stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing about manly pursuits in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>talking up the economy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>gadding about town in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> practicing good skin care in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> avoiding growing old in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>singing blues songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>King David</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a kingdom in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Joe Louis</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning boxing matches in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>writing about social problems in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing serialized stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Homer</t>
-  </si>
-  <si>
-    <t>writing epic poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> telling epic tales in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Serena Williams</t>
-  </si>
-  <si>
-    <t>delivering forehand slams in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning tennis tournaments in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Uri Geller</t>
-  </si>
-  <si>
-    <t>bending spoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Quasimodo</t>
-  </si>
-  <si>
-    <t>carving magnificent statues in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hiding from the public in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Henry James</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garry Kasparov</t>
-  </si>
-  <si>
-    <t>playing aggressive chess in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Jobs</t>
-  </si>
-  <si>
-    <t>running a software company in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a technology company in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> running a hardware company in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pioneering new technologies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> terrorizing employees in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing new technologies  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Winston Churchill</t>
-  </si>
-  <si>
-    <t>fighting against totalitarianism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting democracy in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> coining sparkling witticisms in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bilbo Baggins</t>
-  </si>
-  <si>
-    <t>solving riddles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> posing riddles in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>getting run over by cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sam Winchester</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt Groening</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing comedy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Miami-Dade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Eliza Doolittle</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>handing out flowers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pope Francis</t>
+  </si>
+  <si>
+    <t>Catholicism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Orville Wright</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> testing new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Principal Seymour Skinner</t>
+  </si>
+  <si>
+    <t>disciplining students in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> looking after mother in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Neil Armstrong</t>
+  </si>
+  <si>
+    <t>NASA and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Oscar Pistorius</t>
+  </si>
+  <si>
+    <t>Olympics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Racing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Running and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Family life and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>watching TV in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Fifty Shades of Grey and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a multinational corporation in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>the Aviation industry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a multinational corporation in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling airline seats in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Smiley</t>
+  </si>
+  <si>
+    <t>Mi6 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Whitehall and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>rooting out spies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ilya Kuryakin</t>
+  </si>
+  <si>
+    <t>The Man from U.N.C.L.E and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigel Farage</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brexit and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tyler Durden</t>
+  </si>
+  <si>
+    <t>Fight Club and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Consumerism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>stealing human fat in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Cratchit</t>
+  </si>
+  <si>
+    <t>A Christmas Carol and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Bob Marley</t>
+  </si>
+  <si>
+    <t>Reggae music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carribean music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Cary Grant</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -392,10 +449,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -403,10 +460,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -414,68 +471,68 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -486,7 +543,7 @@
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
@@ -494,10 +551,10 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -505,40 +562,40 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -549,7 +606,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -557,219 +614,219 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="B19" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
-        <v>33</v>
-      </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" t="s">
         <v>47</v>
       </c>
-      <c r="B32" t="s">
-        <v>50</v>
-      </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -777,76 +834,76 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -854,10 +911,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -865,10 +922,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -876,10 +933,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -887,65 +944,65 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -953,10 +1010,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -964,10 +1021,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -975,134 +1032,354 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B56" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B61" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="B63" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C66" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B67" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>94</v>
+      </c>
+      <c r="B69" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>97</v>
+      </c>
+      <c r="B70" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
         <v>99</v>
       </c>
-      <c r="B67" t="s">
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="B72" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
         <v>101</v>
       </c>
-      <c r="C67" t="s">
-        <v>13</v>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>101</v>
+      </c>
+      <c r="B75" t="s">
+        <v>104</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>105</v>
+      </c>
+      <c r="B76" t="s">
+        <v>106</v>
+      </c>
+      <c r="C76" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>105</v>
+      </c>
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>105</v>
+      </c>
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>109</v>
+      </c>
+      <c r="B80" t="s">
+        <v>111</v>
+      </c>
+      <c r="C80" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>109</v>
+      </c>
+      <c r="B81" t="s">
+        <v>112</v>
+      </c>
+      <c r="C81" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>113</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>113</v>
+      </c>
+      <c r="B84" t="s">
+        <v>116</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>117</v>
+      </c>
+      <c r="B86" t="s">
+        <v>119</v>
+      </c>
+      <c r="C86" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" t="s">
+        <v>120</v>
+      </c>
+      <c r="C87" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="120">
   <si>
     <t>Supervisor</t>
   </si>
@@ -23,7 +23,61 @@
     <t>Special Focus</t>
   </si>
   <si>
-    <t>Richard Branson</t>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Barry White</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Love songs and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing romantic songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walt Whitman</t>
+  </si>
+  <si>
+    <t>American poetry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern poetry in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>King Arthur</t>
+  </si>
+  <si>
+    <t>British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>fighting with swords in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>lying badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Howard Hughes</t>
   </si>
   <si>
     <t>the Aviation industry and the Cthulu-Dagon mythos</t>
@@ -32,64 +86,178 @@
     <t>CS+DS</t>
   </si>
   <si>
-    <t>running a multinational corporation in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling airline seats in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sarah Jessica Parker</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Kerouac</t>
-  </si>
-  <si>
-    <t>the Beat generation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing beat fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boudicca</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading revolution in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> instigating rebellion in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jimmy Stewart</t>
+    <t xml:space="preserve"> the Movie business and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arya Stark</t>
+  </si>
+  <si>
+    <t>Game of Thrones and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Francis Crick</t>
+  </si>
+  <si>
+    <t>Biology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DNA and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Double Helix and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Davy Crockett</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting raccoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending freedom in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Katy Perry</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Agent Phil Coulson</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>appreciating vintage collectibles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pippi Longstocking</t>
+  </si>
+  <si>
+    <t>playing pranks in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Cardinal Richelieu</t>
+  </si>
+  <si>
+    <t>French history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre-Revolutionary France and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Ali G</t>
+  </si>
+  <si>
+    <t>Ali G Indahouse and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ayatollah Khomeini</t>
+  </si>
+  <si>
+    <t>Islamic Terrorism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>issuing fatwas in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Adolf Hitler</t>
+  </si>
+  <si>
+    <t>German Fascism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> World War II and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fascism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Blanche DuBois</t>
+  </si>
+  <si>
+    <t>A Street Car Named Desire and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>moaning about men in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hedda Gabler</t>
+  </si>
+  <si>
+    <t>Modern literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> frowning at errant husbands in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harvey Dent</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>convicting criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sonny Crockett</t>
+  </si>
+  <si>
+    <t>Miami Vice and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don Quixote</t>
+  </si>
+  <si>
+    <t>Spanish literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tilting at windmills in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> going on romantic quests in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Willis</t>
   </si>
   <si>
     <t>Hollywood and the Cthulu-Dagon mythos</t>
@@ -98,283 +266,112 @@
     <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>German history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hans Moleman</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>getting run over by cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sam Winchester</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt Groening</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing comedy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dexter Morgan</t>
-  </si>
-  <si>
-    <t>Miami-Dade and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Eliza Doolittle</t>
-  </si>
-  <si>
-    <t>English literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>handing out flowers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pope Francis</t>
-  </si>
-  <si>
-    <t>Catholicism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting Catholic values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Orville Wright</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> testing new technologies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Principal Seymour Skinner</t>
-  </si>
-  <si>
-    <t>disciplining students in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> looking after mother in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Neil Armstrong</t>
-  </si>
-  <si>
-    <t>NASA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Space flight and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Moon and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Oscar Pistorius</t>
-  </si>
-  <si>
-    <t>Olympics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Racing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Running and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>Family life and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>watching TV in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Fifty Shades of Grey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling airline seats in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Smiley</t>
-  </si>
-  <si>
-    <t>Mi6 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Whitehall and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>rooting out spies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ilya Kuryakin</t>
-  </si>
-  <si>
-    <t>The Man from U.N.C.L.E and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Morrissey</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigel Farage</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brexit and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tyler Durden</t>
-  </si>
-  <si>
-    <t>Fight Club and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Consumerism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>stealing human fat in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Cratchit</t>
-  </si>
-  <si>
-    <t>A Christmas Carol and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Bob Marley</t>
-  </si>
-  <si>
-    <t>Reggae music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Carribean music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Cary Grant</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in romantic comedies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Beyoncé</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tarzan</t>
+  </si>
+  <si>
+    <t>the Jungle and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>swinging from tree to tree in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> communicating with animals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bobby Fischer</t>
+  </si>
+  <si>
+    <t>Chess and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Orwell</t>
+  </si>
+  <si>
+    <t>Dystopian fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> warning about totalitarianism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>G. Gordon Liddy</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fidel Castro</t>
+  </si>
+  <si>
+    <t>Cuban politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Bobby Kennedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Law and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Peter Jackson</t>
+  </si>
+  <si>
+    <t>The Lord of the Rings and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hobbit and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making fantasy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Xena</t>
+  </si>
+  <si>
+    <t>Ancient Greece and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting for justice in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -435,137 +432,140 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14">
@@ -573,10 +573,10 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
@@ -584,120 +584,120 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26">
@@ -705,10 +705,10 @@
         <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -716,21 +716,21 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29">
@@ -738,10 +738,10 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30">
@@ -749,637 +749,604 @@
         <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B35" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B40" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B62" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B65" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>117</v>
-      </c>
-      <c r="B85" t="s">
-        <v>118</v>
-      </c>
-      <c r="C85" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>117</v>
-      </c>
-      <c r="B86" t="s">
-        <v>119</v>
-      </c>
-      <c r="C86" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>117</v>
-      </c>
-      <c r="B87" t="s">
-        <v>120</v>
-      </c>
-      <c r="C87" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="122">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,352 +26,358 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Barry White</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
+    <t>Hedda Hopper</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Condoleezza Rice</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Love songs and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing romantic songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walt Whitman</t>
-  </si>
-  <si>
-    <t>American poetry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern poetry in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>King Arthur</t>
-  </si>
-  <si>
-    <t>British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>fighting with swords in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
+    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>advising on foreign affairs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Al Bundy</t>
+  </si>
+  <si>
+    <t>Family life and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>watching TV in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hunter S. Thompson</t>
+  </si>
+  <si>
+    <t>writing about manly pursuits in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kim Philby</t>
+  </si>
+  <si>
+    <t>Espionage and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>betraying friends in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Maleficent</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t>lying badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing poker badly in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Howard Hughes</t>
+    <t xml:space="preserve"> the Magic Forest and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>poisoning an apple in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Myers</t>
+  </si>
+  <si>
+    <t>Halloween and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>terrorizing sleepers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bridget Jones</t>
+  </si>
+  <si>
+    <t>British culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>keeping a diary in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pablo Picasso</t>
+  </si>
+  <si>
+    <t>Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cubism and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting abstract pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sydney Bristow</t>
+  </si>
+  <si>
+    <t>Espionage and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> International Crime and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>kicking ass in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Martin Luther King</t>
+  </si>
+  <si>
+    <t>Black liberation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting racial harmony in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Arnold Schwarzenegger</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>working out in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hannibal Lecter</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Horror fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating census takers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mick Jagger</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jim Jones</t>
+  </si>
+  <si>
+    <t>Christian Fundamentalism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a religious cult in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> organizing mass suicides  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charlie Brown</t>
+  </si>
+  <si>
+    <t>Peanuts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American culture and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing baseball in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johnny Depp</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Moe Szyslak</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>serving beer in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wilbur Wright</t>
   </si>
   <si>
     <t>the Aviation industry and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Movie business and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running an empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arya Stark</t>
-  </si>
-  <si>
-    <t>Game of Thrones and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westeros and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Francis Crick</t>
-  </si>
-  <si>
-    <t>Biology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> DNA and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Double Helix and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Davy Crockett</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting raccoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending freedom in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Katy Perry</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Agent Phil Coulson</t>
-  </si>
-  <si>
-    <t>S.H.I.E.L.D. and the Dagon mythos</t>
+    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Martha Stewart</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Arts and Crafts and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Sean Penn</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> promoting social causes  in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Galileo Galilei</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Astronomy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jenna Jameson</t>
+  </si>
+  <si>
+    <t>Pornography and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Porn movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in pornographic movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emmeline Pankhurst </t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Loki Laufeyson</t>
+  </si>
+  <si>
+    <t>Norse mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mythology and the Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
   </si>
   <si>
-    <t>appreciating vintage collectibles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pippi Longstocking</t>
-  </si>
-  <si>
-    <t>playing pranks in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Cardinal Richelieu</t>
-  </si>
-  <si>
-    <t>French history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> pre-Revolutionary France and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Ali G</t>
-  </si>
-  <si>
-    <t>Ali G Indahouse and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ayatollah Khomeini</t>
-  </si>
-  <si>
-    <t>Islamic Terrorism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>issuing fatwas in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Adolf Hitler</t>
-  </si>
-  <si>
-    <t>German Fascism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> World War II and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fascism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Blanche DuBois</t>
-  </si>
-  <si>
-    <t>A Street Car Named Desire and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hedda Gabler</t>
-  </si>
-  <si>
-    <t>Modern literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> frowning at errant husbands in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harvey Dent</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>convicting criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sonny Crockett</t>
-  </si>
-  <si>
-    <t>Miami Vice and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> preventing crime in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don Quixote</t>
-  </si>
-  <si>
-    <t>Spanish literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tilting at windmills in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> going on romantic quests in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Willis</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Beyoncé</t>
-  </si>
-  <si>
-    <t>Rap music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hip-Hop and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing Hipbop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tarzan</t>
-  </si>
-  <si>
-    <t>the Jungle and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>swinging from tree to tree in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> communicating with animals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bobby Fischer</t>
-  </si>
-  <si>
-    <t>Chess and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing aggressive chess in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Orwell</t>
-  </si>
-  <si>
-    <t>Dystopian fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberalism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> warning about totalitarianism in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>G. Gordon Liddy</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ranting about liberals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bugging political rivals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fidel Castro</t>
-  </si>
-  <si>
-    <t>Cuban politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Bobby Kennedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Law and the Cthulu mythos</t>
+    <t>Brad Pitt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rush Limbaugh</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> American politics and the Cthulu mythos</t>
   </si>
   <si>
-    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Peter Jackson</t>
-  </si>
-  <si>
-    <t>The Lord of the Rings and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hobbit and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making fantasy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Xena</t>
-  </si>
-  <si>
-    <t>Ancient Greece and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting for justice in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Meghan Markle</t>
+  </si>
+  <si>
+    <t>British royalty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>racking up marriages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Amy Winehouse</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing jazz songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -446,6 +452,9 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>1.5269849384470113E-5</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -457,6 +466,9 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
+      <c r="D3" t="n">
+        <v>2.2048003158234494E-5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
@@ -468,6 +480,9 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
+      <c r="D4" t="n">
+        <v>3.1554372945651076E-5</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
@@ -477,7 +492,10 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.476160284943998E-5</v>
       </c>
     </row>
     <row r="6">
@@ -485,213 +503,270 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>6.293721039070572E-5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>8.771323619352105E-5</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.2116538483599256E-4</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.6590053415374052E-4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.2515043501124092E-4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3.0286813618754255E-4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D12" t="n">
+        <v>4.038221798415987E-4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D13" t="n">
+        <v>5.336819845047386E-4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.99086164291921E-4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9.07683963941894E-4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.001168138695793255</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0014900812537872107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0018840016754918384</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.002361067548715852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0029328600106741255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0036110213053512363</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0044068124026820366</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.005330584980021411</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0063911789222748615</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
         <v>39</v>
@@ -699,10 +774,13 @@
       <c r="C25" t="s">
         <v>6</v>
       </c>
+      <c r="D25" t="n">
+        <v>0.007595264061180086</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -710,76 +788,97 @@
       <c r="C26" t="s">
         <v>6</v>
       </c>
+      <c r="D26" t="n">
+        <v>0.008946652646718234</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.010445616395281576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.012088248170396942</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.013865912669682012</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.015764832202922185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.017765852157898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
         <v>48</v>
       </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.01984442567328898</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
         <v>50</v>
@@ -787,10 +886,13 @@
       <c r="C33" t="s">
         <v>6</v>
       </c>
+      <c r="D33" t="n">
+        <v>0.021970848257553632</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -798,54 +900,69 @@
       <c r="C34" t="s">
         <v>6</v>
       </c>
+      <c r="D34" t="n">
+        <v>0.0241107608245697</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="B35" t="s">
-        <v>53</v>
-      </c>
       <c r="C35" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.02622592442958982</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.028275252793314554</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.030216070698754538</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
         <v>56</v>
       </c>
-      <c r="B38" t="s">
-        <v>57</v>
-      </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.03200554893808563</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
         <v>58</v>
@@ -853,93 +970,120 @@
       <c r="C39" t="s">
         <v>6</v>
       </c>
+      <c r="D39" t="n">
+        <v>0.03360225115908563</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" t="s">
         <v>59</v>
       </c>
-      <c r="B40" t="s">
-        <v>60</v>
-      </c>
       <c r="C40" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.03496771613729857</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.03606799189852329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.03687503661171873</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" t="s">
         <v>63</v>
       </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
       <c r="C43" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.037367905689559236</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.03753365498052602</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" t="s">
         <v>66</v>
       </c>
-      <c r="B45" t="s">
-        <v>67</v>
-      </c>
       <c r="C45" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.03736790568955906</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.036875036611718905</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.036067991898523125</v>
       </c>
     </row>
     <row r="48">
@@ -947,10 +1091,13 @@
         <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.03496771613729874</v>
       </c>
     </row>
     <row r="49">
@@ -958,21 +1105,27 @@
         <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.03360225115908563</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.03200554893808549</v>
       </c>
     </row>
     <row r="51">
@@ -980,10 +1133,13 @@
         <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.030216070698754705</v>
       </c>
     </row>
     <row r="52">
@@ -991,21 +1147,27 @@
         <v>73</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.028275252793314554</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>26</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.02622592442958993</v>
       </c>
     </row>
     <row r="54">
@@ -1013,10 +1175,13 @@
         <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.024110760824569588</v>
       </c>
     </row>
     <row r="55">
@@ -1024,21 +1189,27 @@
         <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.02197084825755352</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.01984442567328909</v>
       </c>
     </row>
     <row r="57">
@@ -1046,10 +1217,13 @@
         <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.017765852157898</v>
       </c>
     </row>
     <row r="58">
@@ -1057,21 +1231,27 @@
         <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.015764832202922185</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.013865912669682012</v>
       </c>
     </row>
     <row r="60">
@@ -1079,10 +1259,13 @@
         <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.012088248170396942</v>
       </c>
     </row>
     <row r="61">
@@ -1090,76 +1273,97 @@
         <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.01044561639528141</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>88</v>
+      </c>
+      <c r="B62" t="s">
         <v>89</v>
       </c>
-      <c r="B62" t="s">
-        <v>90</v>
-      </c>
       <c r="C62" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.0089466526467184</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.0075952640611800445</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.006391178922274903</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>92</v>
+      </c>
+      <c r="B65" t="s">
         <v>93</v>
       </c>
-      <c r="B65" t="s">
-        <v>94</v>
-      </c>
       <c r="C65" t="s">
         <v>6</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.005330584980021411</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
         <v>6</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.00440681240268203</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.0036110213053512433</v>
       </c>
     </row>
     <row r="68">
@@ -1167,10 +1371,13 @@
         <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0.0029328600106741255</v>
       </c>
     </row>
     <row r="69">
@@ -1178,21 +1385,27 @@
         <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0.0023610675487158693</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0.001884001675491821</v>
       </c>
     </row>
     <row r="71">
@@ -1200,10 +1413,13 @@
         <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0.0014900812537872081</v>
       </c>
     </row>
     <row r="72">
@@ -1211,21 +1427,27 @@
         <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0.0011681386957932576</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>26</v>
+      </c>
+      <c r="D73" t="n">
+        <v>9.07683963941894E-4</v>
       </c>
     </row>
     <row r="74">
@@ -1233,10 +1455,13 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
         <v>6</v>
+      </c>
+      <c r="D74" t="n">
+        <v>6.99086164291915E-4</v>
       </c>
     </row>
     <row r="75">
@@ -1244,109 +1469,167 @@
         <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.336819845047447E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
         <v>108</v>
       </c>
-      <c r="B76" t="s">
-        <v>109</v>
-      </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D76" t="n">
+        <v>4.038221798415987E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D77" t="n">
+        <v>3.028681361875418E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>11</v>
+      </c>
+      <c r="D78" t="n">
+        <v>2.2515043501124168E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" t="s">
         <v>112</v>
       </c>
-      <c r="B79" t="s">
-        <v>113</v>
-      </c>
       <c r="C79" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D79" t="n">
+        <v>1.6590053415374052E-4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.2116538483599256E-4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C81" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="D81" t="n">
+        <v>8.771323619352105E-5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" t="s">
         <v>116</v>
       </c>
-      <c r="B82" t="s">
-        <v>117</v>
-      </c>
       <c r="C82" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D82" t="n">
+        <v>6.293721039070545E-5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D83" t="n">
+        <v>4.476160284944025E-5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
         <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>18</v>
+        <v>6</v>
+      </c>
+      <c r="D84" t="n">
+        <v>3.1554372945651076E-5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" t="s">
+        <v>120</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="n">
+        <v>2.204800315823463E-5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="n">
+        <v>1.5269849384469977E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="124">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,358 +26,364 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Hedda Hopper</t>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Doonesbury and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Political Cartoons and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>drawing political cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Iggy Pop</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jazz and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
   </si>
   <si>
     <t>Hollywood and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Newspaper industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting conservative values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Condoleezza Rice</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>advising on foreign affairs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Al Bundy</t>
-  </si>
-  <si>
-    <t>Family life and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>watching TV in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hunter S. Thompson</t>
-  </si>
-  <si>
-    <t>writing about manly pursuits in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kim Philby</t>
-  </si>
-  <si>
-    <t>Espionage and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Betrayal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>betraying friends in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Maleficent</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty and the Dagon mythos</t>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeremy Paxman</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing politicians in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bobby Kennedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Law and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johann Sebastian Bach</t>
+  </si>
+  <si>
+    <t>Classical music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Baroque music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Religious music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Eleanor Rigby</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>performing household chores in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Queen Victoria</t>
+  </si>
+  <si>
+    <t>British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>ruling over subjects in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Russell Crowe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> throwing temper tantrums in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Annie Oakley</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> selling tickets in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ali G</t>
+  </si>
+  <si>
+    <t>Ali G Indahouse and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> the Magic Forest and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>poisoning an apple in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Myers</t>
-  </si>
-  <si>
-    <t>Halloween and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>terrorizing sleepers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> creating nightmares in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bridget Jones</t>
-  </si>
-  <si>
-    <t>British culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> moaning about men in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cubism and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting abstract pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sydney Bristow</t>
-  </si>
-  <si>
-    <t>Espionage and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> International Crime and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>kicking ass in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Martin Luther King</t>
-  </si>
-  <si>
-    <t>Black liberation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American Civil Rights movement and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting racial harmony in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Arnold Schwarzenegger</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>working out in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hannibal Lecter</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Horror fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating census takers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mick Jagger</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jim Jones</t>
-  </si>
-  <si>
-    <t>Christian Fundamentalism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a religious cult in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> organizing mass suicides  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charlie Brown</t>
-  </si>
-  <si>
-    <t>Peanuts and the Dagon mythos</t>
+    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mad Max Rockatansky</t>
+  </si>
+  <si>
+    <t>the Post-Apocalypse and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Action movies and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>avenging loved ones in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jack Bauer</t>
+  </si>
+  <si>
+    <t>24 and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing terrorists in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>George McFly</t>
+  </si>
+  <si>
+    <t>Back To The Future and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>standing up to bullies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fagin</t>
+  </si>
+  <si>
+    <t>Oliver Twist and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Doc Emmett Brown</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> developing new technologies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing time machines in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mike Tyson</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Charlie Harper</t>
+  </si>
+  <si>
+    <t>American comedy and the Dagon mythos</t>
   </si>
   <si>
     <t xml:space="preserve"> American culture and the Dagon mythos</t>
   </si>
   <si>
-    <t>playing baseball in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johnny Depp</t>
+    <t xml:space="preserve"> Two And A Half Men and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Woody Allen</t>
+  </si>
+  <si>
+    <t>New York City and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Elmore Leonard</t>
+  </si>
+  <si>
+    <t>Crime fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing crime stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing compelling dialogue in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Steve Ballmer</t>
+  </si>
+  <si>
+    <t>Microsoft and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Software business and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Tim Berners-Lee</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Buffy Summers</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hunting demons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hunting monsters in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Brown</t>
+  </si>
+  <si>
+    <t>Soul music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bill O'Reilly</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Joaquin Phoenix</t>
   </si>
   <si>
     <t>Hollywood and the Cthulu mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Moe Szyslak</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>serving beer in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wilbur Wright</t>
-  </si>
-  <si>
-    <t>the Aviation industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Aviation and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>developing new technologies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Martha Stewart</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Arts and Crafts and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Sean Penn</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> promoting social causes  in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Galileo Galilei</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Astronomy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jenna Jameson</t>
-  </si>
-  <si>
-    <t>Pornography and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Porn movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in pornographic movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emmeline Pankhurst </t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Loki Laufeyson</t>
-  </si>
-  <si>
-    <t>Norse mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Brad Pitt</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rush Limbaugh</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Meghan Markle</t>
-  </si>
-  <si>
-    <t>British royalty and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>racking up marriages in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Amy Winehouse</t>
-  </si>
-  <si>
-    <t>Pop Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing jazz songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> singing torch songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Noam Chomsky</t>
+  </si>
+  <si>
+    <t>Linguistics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the American Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Christian Bale</t>
+  </si>
+  <si>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wearing a batsuit in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Karen Carpenter</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Anorexia and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Twain</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing folksy fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -453,7 +459,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5269849384470113E-5</v>
+        <v>1.4851559397829867E-5</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2048003158234494E-5</v>
+        <v>2.1268196140727013E-5</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +487,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1554372945651076E-5</v>
+        <v>3.0200882409903816E-5</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +501,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.476160284943998E-5</v>
+        <v>4.252447727799545E-5</v>
       </c>
     </row>
     <row r="6">
@@ -509,7 +515,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>6.293721039070572E-5</v>
+        <v>5.9372961519356404E-5</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +529,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>8.771323619352105E-5</v>
+        <v>8.219943220723818E-5</v>
       </c>
     </row>
     <row r="8">
@@ -534,10 +540,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1.2116538483599256E-4</v>
+        <v>1.1284421543794224E-4</v>
       </c>
     </row>
     <row r="9">
@@ -548,10 +554,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6590053415374052E-4</v>
+        <v>1.5361023868065086E-4</v>
       </c>
     </row>
     <row r="10">
@@ -562,10 +568,10 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>2.2515043501124092E-4</v>
+        <v>2.0734396824795775E-4</v>
       </c>
     </row>
     <row r="11">
@@ -576,43 +582,43 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>3.0286813618754255E-4</v>
+        <v>2.77519195718153E-4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>4.038221798415987E-4</v>
+        <v>3.683197703472972E-4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>5.336819845047386E-4</v>
+        <v>4.8471606686904356E-4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
@@ -621,189 +627,189 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>6.99086164291921E-4</v>
+        <v>6.325286215140115E-4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>9.07683963941894E-4</v>
+        <v>8.184710652093482E-4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001168138695793255</v>
+        <v>0.0010501633623933352</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0014900812537872107</v>
+        <v>0.0013361055821213335</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0018840016754918384</v>
+        <v>0.0016856021568725224</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002361067548715852</v>
+        <v>0.00210862699870843</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0029328600106741255</v>
+        <v>0.0026156211031990416</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0036110213053512363</v>
+        <v>0.0032172165050838933</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
       </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0044068124026820366</v>
+        <v>0.003923883724839457</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>0.005330584980021411</v>
+        <v>0.0047455041513748235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0063911789222748615</v>
+        <v>0.005690874033349825</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
         <v>37</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
-        <v>0.007595264061180086</v>
+        <v>0.006767152678813563</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008946652646718234</v>
+        <v>0.007979273753471877</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>0.010445616395281576</v>
+        <v>0.009329344778666426</v>
       </c>
     </row>
     <row r="28">
@@ -811,13 +817,13 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.012088248170396942</v>
+        <v>0.01081606553293224</v>
       </c>
     </row>
     <row r="29">
@@ -825,27 +831,27 @@
         <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.013865912669682012</v>
+        <v>0.012434200478872948</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="n">
-        <v>0.015764832202922185</v>
+        <v>0.014174142992357697</v>
       </c>
     </row>
     <row r="31">
@@ -853,13 +859,13 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D31" t="n">
-        <v>0.017765852157898</v>
+        <v>0.01602160954283749</v>
       </c>
     </row>
     <row r="32">
@@ -870,365 +876,365 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01984442567328898</v>
+        <v>0.017957499659263798</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D33" t="n">
-        <v>0.021970848257553632</v>
+        <v>0.019957952290163616</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0241107608245697</v>
+        <v>0.02199462103004135</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02622592442958982</v>
+        <v>0.024035179897379078</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D36" t="n">
-        <v>0.028275252793314554</v>
+        <v>0.026044058440509943</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D37" t="n">
-        <v>0.030216070698754538</v>
+        <v>0.02798339069524164</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03200554893808563</v>
+        <v>0.029814147905219246</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03360225115908563</v>
+        <v>0.03149741105644363</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03496771613729857</v>
+        <v>0.03299572732207945</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03606799189852329</v>
+        <v>0.03427448554401777</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03687503661171873</v>
+        <v>0.0353032407972312</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D43" t="n">
-        <v>0.037367905689559236</v>
+        <v>0.03605691751988802</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03753365498052602</v>
+        <v>0.03651682492318803</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
         <v>65</v>
       </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
       <c r="C45" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03736790568955906</v>
+        <v>0.03667142730125568</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D46" t="n">
-        <v>0.036875036611718905</v>
+        <v>0.03651682492318786</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D47" t="n">
-        <v>0.036067991898523125</v>
+        <v>0.03605691751988802</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03496771613729874</v>
+        <v>0.0353032407972312</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03360225115908563</v>
+        <v>0.03427448554401777</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03200554893808549</v>
+        <v>0.03299572732207945</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
       <c r="C51" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>0.030216070698754705</v>
+        <v>0.031497411056443436</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D52" t="n">
-        <v>0.028275252793314554</v>
+        <v>0.029814147905219357</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02622592442958993</v>
+        <v>0.027983390695241472</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>74</v>
+      </c>
+      <c r="B54" t="s">
         <v>77</v>
       </c>
-      <c r="B54" t="s">
-        <v>78</v>
-      </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D54" t="n">
-        <v>0.024110760824569588</v>
+        <v>0.02604405844051022</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02197084825755352</v>
+        <v>0.024035179897379078</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01984442567328909</v>
+        <v>0.02199462103004135</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B57" t="s">
         <v>81</v>
       </c>
-      <c r="B57" t="s">
-        <v>82</v>
-      </c>
       <c r="C57" t="s">
         <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>0.017765852157898</v>
+        <v>0.019957952290163616</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
@@ -1237,12 +1243,12 @@
         <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>0.015764832202922185</v>
+        <v>0.017957499659263798</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
@@ -1251,26 +1257,26 @@
         <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>0.013865912669682012</v>
+        <v>0.01602160954283749</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
         <v>85</v>
       </c>
-      <c r="B60" t="s">
-        <v>86</v>
-      </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>0.012088248170396942</v>
+        <v>0.01417414299235753</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
         <v>87</v>
@@ -1279,40 +1285,40 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01044561639528141</v>
+        <v>0.012434200478872948</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>86</v>
+      </c>
+      <c r="B62" t="s">
         <v>88</v>
       </c>
-      <c r="B62" t="s">
-        <v>89</v>
-      </c>
       <c r="C62" t="s">
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0089466526467184</v>
+        <v>0.010816065532932406</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0075952640611800445</v>
+        <v>0.009329344778666426</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
         <v>91</v>
@@ -1321,82 +1327,82 @@
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>0.006391178922274903</v>
+        <v>0.007979273753471877</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
         <v>92</v>
       </c>
-      <c r="B65" t="s">
-        <v>93</v>
-      </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005330584980021411</v>
+        <v>0.006767152678813563</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00440681240268203</v>
+        <v>0.005690874033349825</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0036110213053512433</v>
+        <v>0.004745504151374782</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
         <v>96</v>
       </c>
-      <c r="B68" t="s">
-        <v>97</v>
-      </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0029328600106741255</v>
+        <v>0.003923883724839495</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0023610675487158693</v>
+        <v>0.0032172165050838794</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
         <v>99</v>
@@ -1405,231 +1411,259 @@
         <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>0.001884001675491821</v>
+        <v>0.002615621103199059</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
+        <v>98</v>
+      </c>
+      <c r="B71" t="s">
         <v>100</v>
       </c>
-      <c r="B71" t="s">
-        <v>101</v>
-      </c>
       <c r="C71" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0014900812537872081</v>
+        <v>0.00210862699870843</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0011681386957932576</v>
+        <v>0.0016856021568725224</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
         <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>9.07683963941894E-4</v>
+        <v>0.0013361055821213335</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" t="s">
         <v>104</v>
       </c>
-      <c r="B74" t="s">
-        <v>105</v>
-      </c>
       <c r="C74" t="s">
         <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6.99086164291915E-4</v>
+        <v>0.0010501633623933352</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C75" t="s">
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>5.336819845047447E-4</v>
+        <v>8.184710652093417E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>106</v>
+      </c>
+      <c r="B76" t="s">
         <v>107</v>
       </c>
-      <c r="B76" t="s">
-        <v>108</v>
-      </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>4.038221798415987E-4</v>
+        <v>6.325286215140148E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>3.028681361875418E-4</v>
+        <v>4.8471606686904876E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>2.2515043501124168E-4</v>
+        <v>3.6831977034729527E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
         <v>111</v>
       </c>
-      <c r="B79" t="s">
-        <v>112</v>
-      </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>1.6590053415374052E-4</v>
+        <v>2.77519195718153E-4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D80" t="n">
-        <v>1.2116538483599256E-4</v>
+        <v>2.0734396824795775E-4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>8.771323619352105E-5</v>
+        <v>1.5361023868065086E-4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82" t="s">
         <v>115</v>
       </c>
-      <c r="B82" t="s">
-        <v>116</v>
-      </c>
       <c r="C82" t="s">
         <v>6</v>
       </c>
       <c r="D82" t="n">
-        <v>6.293721039070545E-5</v>
+        <v>1.1284421543794224E-4</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C83" t="s">
         <v>6</v>
       </c>
       <c r="D83" t="n">
-        <v>4.476160284944025E-5</v>
+        <v>8.219943220723778E-5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>117</v>
+      </c>
+      <c r="B84" t="s">
         <v>118</v>
       </c>
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>3.1554372945651076E-5</v>
+        <v>5.937296151935681E-5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D85" t="n">
-        <v>2.204800315823463E-5</v>
+        <v>4.2524477277995325E-5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
+        <v>120</v>
+      </c>
+      <c r="C86" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" t="n">
+        <v>3.0200882409903937E-5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
         <v>121</v>
       </c>
-      <c r="C86" t="s">
-        <v>6</v>
-      </c>
-      <c r="D86" t="n">
-        <v>1.5269849384469977E-5</v>
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="n">
+        <v>2.1268196140727013E-5</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>121</v>
+      </c>
+      <c r="B88" t="s">
+        <v>123</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="n">
+        <v>1.4851559397829867E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="122">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,364 +26,358 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Doonesbury and the Cthulu-Dagon mythos</t>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Hogwarts and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jeff Sessions</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Raymond Chandler</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Political Cartoons and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>drawing political cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Iggy Pop</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jazz and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Will Smith</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeremy Paxman</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing politicians in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bobby Kennedy</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Law and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johann Sebastian Bach</t>
-  </si>
-  <si>
-    <t>Classical music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Baroque music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Religious music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Eleanor Rigby</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>performing household chores in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Queen Victoria</t>
-  </si>
-  <si>
-    <t>British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British royalty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>ruling over subjects in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Russell Crowe</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> throwing temper tantrums in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Annie Oakley</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> selling tickets in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ali G</t>
-  </si>
-  <si>
-    <t>Ali G Indahouse and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mad Max Rockatansky</t>
-  </si>
-  <si>
-    <t>the Post-Apocalypse and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Action movies and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>avenging loved ones in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jack Bauer</t>
-  </si>
-  <si>
-    <t>24 and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American Counter-Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>chasing terrorists in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>George McFly</t>
-  </si>
-  <si>
-    <t>Back To The Future and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>standing up to bullies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spying on girls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fagin</t>
-  </si>
-  <si>
-    <t>Oliver Twist and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Doc Emmett Brown</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> developing new technologies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> inventing time machines in Dagon-worshipping societies</t>
+    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing detective fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Spartacus</t>
+  </si>
+  <si>
+    <t>Gladiator and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Roman epics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting in gladiator arenas in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Le Chiffre</t>
+  </si>
+  <si>
+    <t>James Bond and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Oscar Wilde</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Hamlet</t>
+  </si>
+  <si>
+    <t>Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Colonel Sanders</t>
+  </si>
+  <si>
+    <t>KFC and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fried Chicken and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Southern Food and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>Mike Tyson</t>
   </si>
   <si>
-    <t>Boxing and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Charlie Harper</t>
-  </si>
-  <si>
-    <t>American comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American culture and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Two And A Half Men and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Woody Allen</t>
-  </si>
-  <si>
-    <t>New York City and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Elmore Leonard</t>
-  </si>
-  <si>
-    <t>Crime fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing crime stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing compelling dialogue in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Steve Ballmer</t>
-  </si>
-  <si>
-    <t>Microsoft and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Software business and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Technology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Tim Berners-Lee</t>
-  </si>
-  <si>
-    <t>The World Wide Web and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Buffy Summers</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hunting demons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hunting monsters in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>Soul music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing blues songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bill O'Reilly</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Joaquin Phoenix</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Noam Chomsky</t>
-  </si>
-  <si>
-    <t>Linguistics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the American Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Christian Bale</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wearing a batsuit in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Karen Carpenter</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Anorexia and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Twain</t>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Romeo Montague</t>
+  </si>
+  <si>
+    <t>Romeo and Juliet and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting in duels in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> falling in love in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Batman</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>tracking down criminals in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shylock</t>
+  </si>
+  <si>
+    <t>Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>amassing wealth in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seeking revenge in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>the Law and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crime and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>Spinal Tap and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christian Grey</t>
+  </si>
+  <si>
+    <t>Fifty Shades of Grey and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a multinational corporation in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Truman Capote</t>
   </si>
   <si>
     <t>American literature and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>writing folksy fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> Modern literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dr. Julius No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> collecting stamps in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Pamela Anderson</t>
+  </si>
+  <si>
+    <t>Baywatch and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>monetizing physical assets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Jessica Parker</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manhattan and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Scarlett O'Hara</t>
+  </si>
+  <si>
+    <t>Gone With The Wind and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The American Civil War and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>attending cotillion balls in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Donald Rumsfeld</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting new wars in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Coriolanus Snow</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a bureaucracy in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Margaret Mead</t>
+  </si>
+  <si>
+    <t>Anthropology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas Pynchon</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walt Whitman</t>
+  </si>
+  <si>
+    <t>American poetry and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern poetry in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Jones</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Anne Frank</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>keeping a diary in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thomas "Neo" Anderson</t>
+  </si>
+  <si>
+    <t>The Matrix and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alexander the Great</t>
+  </si>
+  <si>
+    <t>War and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>building empires in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bob Belcher</t>
+  </si>
+  <si>
+    <t>Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -459,7 +453,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.4851559397829867E-5</v>
+        <v>1.5269849384470113E-5</v>
       </c>
     </row>
     <row r="3">
@@ -473,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1268196140727013E-5</v>
+        <v>2.2048003158234494E-5</v>
       </c>
     </row>
     <row r="4">
@@ -487,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.0200882409903816E-5</v>
+        <v>3.1554372945651076E-5</v>
       </c>
     </row>
     <row r="5">
@@ -501,7 +495,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.252447727799545E-5</v>
+        <v>4.476160284943998E-5</v>
       </c>
     </row>
     <row r="6">
@@ -515,7 +509,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>5.9372961519356404E-5</v>
+        <v>6.293721039070572E-5</v>
       </c>
     </row>
     <row r="7">
@@ -529,7 +523,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>8.219943220723818E-5</v>
+        <v>8.771323619352105E-5</v>
       </c>
     </row>
     <row r="8">
@@ -540,10 +534,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>1.1284421543794224E-4</v>
+        <v>1.2116538483599256E-4</v>
       </c>
     </row>
     <row r="9">
@@ -551,13 +545,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>1.5361023868065086E-4</v>
+        <v>1.6590053415374052E-4</v>
       </c>
     </row>
     <row r="10">
@@ -565,256 +559,256 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>2.0734396824795775E-4</v>
+        <v>2.2515043501124092E-4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>2.77519195718153E-4</v>
+        <v>3.0286813618754255E-4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>3.683197703472972E-4</v>
+        <v>4.038221798415987E-4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>4.8471606686904356E-4</v>
+        <v>5.336819845047386E-4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D14" t="n">
-        <v>6.325286215140115E-4</v>
+        <v>6.99086164291921E-4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>8.184710652093482E-4</v>
+        <v>9.07683963941894E-4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0010501633623933352</v>
+        <v>0.001168138695793255</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0013361055821213335</v>
+        <v>0.0014900812537872107</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0016856021568725224</v>
+        <v>0.0018840016754918384</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>0.00210862699870843</v>
+        <v>0.002361067548715852</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0026156211031990416</v>
+        <v>0.0029328600106741255</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0032172165050838933</v>
+        <v>0.0036110213053512363</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>0.003923883724839457</v>
+        <v>0.0044068124026820366</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0047455041513748235</v>
+        <v>0.005330584980021411</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>0.005690874033349825</v>
+        <v>0.0063911789222748615</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>0.006767152678813563</v>
+        <v>0.007595264061180086</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D26" t="n">
-        <v>0.007979273753471877</v>
+        <v>0.008946652646718234</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
-        <v>0.009329344778666426</v>
+        <v>0.010445616395281576</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
@@ -823,306 +817,306 @@
         <v>11</v>
       </c>
       <c r="D28" t="n">
-        <v>0.01081606553293224</v>
+        <v>0.012088248170396942</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>0.012434200478872948</v>
+        <v>0.013865912669682012</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>0.014174142992357697</v>
+        <v>0.015764832202922185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>0.01602160954283749</v>
+        <v>0.017765852157898</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>0.017957499659263798</v>
+        <v>0.01984442567328898</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>0.019957952290163616</v>
+        <v>0.021970848257553632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
         <v>50</v>
       </c>
-      <c r="B34" t="s">
-        <v>51</v>
-      </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>0.02199462103004135</v>
+        <v>0.0241107608245697</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>0.024035179897379078</v>
+        <v>0.02622592442958982</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.026044058440509943</v>
+        <v>0.028275252793314554</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
         <v>54</v>
       </c>
-      <c r="B37" t="s">
-        <v>55</v>
-      </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>0.02798339069524164</v>
+        <v>0.030216070698754538</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
-        <v>0.029814147905219246</v>
+        <v>0.03200554893808563</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03149741105644363</v>
+        <v>0.03360225115908563</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
         <v>58</v>
       </c>
-      <c r="B40" t="s">
-        <v>59</v>
-      </c>
       <c r="C40" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03299572732207945</v>
+        <v>0.03496771613729857</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03427448554401777</v>
+        <v>0.03606799189852329</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B42" t="s">
         <v>61</v>
       </c>
       <c r="C42" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0353032407972312</v>
+        <v>0.03687503661171873</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
         <v>62</v>
       </c>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
       <c r="C43" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03605691751988802</v>
+        <v>0.037367905689559236</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03651682492318803</v>
+        <v>0.03753365498052602</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03667142730125568</v>
+        <v>0.03736790568955906</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" t="s">
         <v>66</v>
       </c>
-      <c r="B46" t="s">
-        <v>67</v>
-      </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03651682492318786</v>
+        <v>0.036875036611718905</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03605691751988802</v>
+        <v>0.036067991898523125</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="s">
         <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0353032407972312</v>
+        <v>0.03496771613729874</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" t="s">
         <v>70</v>
       </c>
-      <c r="B49" t="s">
-        <v>71</v>
-      </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03427448554401777</v>
+        <v>0.03360225115908563</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
@@ -1131,152 +1125,152 @@
         <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03299572732207945</v>
+        <v>0.03200554893808549</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>0.031497411056443436</v>
+        <v>0.030216070698754705</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>0.029814147905219357</v>
+        <v>0.028275252793314554</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>0.027983390695241472</v>
+        <v>0.02622592442958993</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D54" t="n">
-        <v>0.02604405844051022</v>
+        <v>0.024110760824569588</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D55" t="n">
-        <v>0.024035179897379078</v>
+        <v>0.02197084825755352</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D56" t="n">
-        <v>0.02199462103004135</v>
+        <v>0.01984442567328909</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>0.019957952290163616</v>
+        <v>0.017765852157898</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>0.017957499659263798</v>
+        <v>0.015764832202922185</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
         <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D59" t="n">
-        <v>0.01602160954283749</v>
+        <v>0.013865912669682012</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
         <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>0.01417414299235753</v>
+        <v>0.012088248170396942</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
         <v>87</v>
@@ -1285,12 +1279,12 @@
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>0.012434200478872948</v>
+        <v>0.01044561639528141</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B62" t="s">
         <v>88</v>
@@ -1299,110 +1293,110 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>0.010816065532932406</v>
+        <v>0.0089466526467184</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>0.009329344778666426</v>
+        <v>0.0075952640611800445</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
         <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>0.007979273753471877</v>
+        <v>0.006391178922274903</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B65" t="s">
         <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006767152678813563</v>
+        <v>0.005330584980021411</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D66" t="n">
-        <v>0.005690874033349825</v>
+        <v>0.00440681240268203</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67" t="s">
         <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>0.004745504151374782</v>
+        <v>0.0036110213053512433</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>0.003923883724839495</v>
+        <v>0.0029328600106741255</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0032172165050838794</v>
+        <v>0.0023610675487158693</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
         <v>99</v>
@@ -1411,119 +1405,119 @@
         <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>0.002615621103199059</v>
+        <v>0.001884001675491821</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
         <v>11</v>
       </c>
       <c r="D71" t="n">
-        <v>0.00210862699870843</v>
+        <v>0.0014900812537872081</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0016856021568725224</v>
+        <v>0.0011681386957932576</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0013361055821213335</v>
+        <v>9.07683963941894E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0010501633623933352</v>
+        <v>6.99086164291915E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D75" t="n">
-        <v>8.184710652093417E-4</v>
+        <v>5.336819845047447E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
         <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>6.325286215140148E-4</v>
+        <v>4.038221798415987E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>4.8471606686904876E-4</v>
+        <v>3.028681361875418E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
-        <v>3.6831977034729527E-4</v>
+        <v>2.2515043501124168E-4</v>
       </c>
     </row>
     <row r="79">
@@ -1531,13 +1525,13 @@
         <v>110</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>2.77519195718153E-4</v>
+        <v>1.6590053415374052E-4</v>
       </c>
     </row>
     <row r="80">
@@ -1545,27 +1539,27 @@
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>2.0734396824795775E-4</v>
+        <v>1.2116538483599256E-4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B81" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
-        <v>1.5361023868065086E-4</v>
+        <v>8.771323619352105E-5</v>
       </c>
     </row>
     <row r="82">
@@ -1573,13 +1567,13 @@
         <v>114</v>
       </c>
       <c r="B82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>1.1284421543794224E-4</v>
+        <v>6.293721039070545E-5</v>
       </c>
     </row>
     <row r="83">
@@ -1587,83 +1581,55 @@
         <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D83" t="n">
-        <v>8.219943220723778E-5</v>
+        <v>4.476160284944025E-5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D84" t="n">
-        <v>5.937296151935681E-5</v>
+        <v>3.1554372945651076E-5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B85" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D85" t="n">
-        <v>4.2524477277995325E-5</v>
+        <v>2.204800315823463E-5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B86" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>3.0200882409903937E-5</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>121</v>
-      </c>
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" t="s">
-        <v>6</v>
-      </c>
-      <c r="D87" t="n">
-        <v>2.1268196140727013E-5</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>121</v>
-      </c>
-      <c r="B88" t="s">
-        <v>123</v>
-      </c>
-      <c r="C88" t="s">
-        <v>6</v>
-      </c>
-      <c r="D88" t="n">
-        <v>1.4851559397829867E-5</v>
+        <v>1.5269849384469977E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -26,64 +26,190 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Albus Dumbledore</t>
-  </si>
-  <si>
-    <t>Hogwarts and the Dagon mythos</t>
+    <t>Otto von Bismarck</t>
+  </si>
+  <si>
+    <t>German history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeremy Paxman</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the News and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>interviewing politicians in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Daniel Day-Lewis</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Marilyn Monroe</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tony Blair</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the British Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Labour Party and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Dr. Henry Jekyll</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Teen fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jeff Sessions</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Raymond Chandler</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing detective fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Spartacus</t>
-  </si>
-  <si>
-    <t>Gladiator and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Roman epics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting in gladiator arenas in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Le Chiffre</t>
+    <t xml:space="preserve"> Literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Father Ted</t>
+  </si>
+  <si>
+    <t>Comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>preaching tolerance in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading Christianity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>the Marx Brothers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>defending the weak in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wallowing in mud in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rupert Murdoch</t>
+  </si>
+  <si>
+    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Moe Szyslak</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>serving beer in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>playing the saxophone in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> over-achieving at school in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Phelps</t>
+  </si>
+  <si>
+    <t>Swimming and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>winning gold medals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> winning swimming competitions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Green Lantern</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ronald McDonald</t>
+  </si>
+  <si>
+    <t>McDonalds and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flipping hamburgers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sir Hugo Drax</t>
   </si>
   <si>
     <t>James Bond and the Dagon mythos</t>
@@ -95,235 +221,154 @@
     <t xml:space="preserve"> Finance and the Dagon mythos</t>
   </si>
   <si>
-    <t>Oscar Wilde</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Hamlet</t>
-  </si>
-  <si>
-    <t>Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elsinore and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hamlet: Prince of Denmark and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Colonel Sanders</t>
-  </si>
-  <si>
-    <t>KFC and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fried Chicken and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Southern Food and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Mike Tyson</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning heavyweight titles in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> knocking out opponents in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Romeo Montague</t>
-  </si>
-  <si>
-    <t>Romeo and Juliet and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting in duels in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> falling in love in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Batman</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gotham City and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>tracking down criminals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Shylock</t>
-  </si>
-  <si>
-    <t>Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>amassing wealth in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seeking revenge in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>the Law and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crime and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reality TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Nigel Tufnel</t>
-  </si>
-  <si>
-    <t>Spinal Tap and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Christian Grey</t>
-  </si>
-  <si>
-    <t>Fifty Shades of Grey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Truman Capote</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dr. Julius No</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> collecting stamps in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Pamela Anderson</t>
-  </si>
-  <si>
-    <t>Baywatch and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>monetizing physical assets in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making unauthorized sex tapes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sarah Jessica Parker</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Scarlett O'Hara</t>
-  </si>
-  <si>
-    <t>Gone With The Wind and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The American Civil War and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>attending cotillion balls in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Donald Rumsfeld</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the War on Terror and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting new wars in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Coriolanus Snow</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Hunger Games and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a bureaucracy in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Margaret Mead</t>
-  </si>
-  <si>
-    <t>Anthropology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>bridging cultures  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas Pynchon</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walt Whitman</t>
-  </si>
-  <si>
-    <t>American poetry and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern poetry in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Jones</t>
+    <t>Barbra Streisand</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing torch songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ross Geller</t>
+  </si>
+  <si>
+    <t>Friends and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>studying paleontology in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Larry Flynt</t>
+  </si>
+  <si>
+    <t>Hustler Magazine and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Soft pornography and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>publishing soft pornography in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ellen DeGeneres</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>interviewing celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stanley Kowalski</t>
+  </si>
+  <si>
+    <t>A Street Car Named Desire and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>moaning about women in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tom Hanks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing everyman characters in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeff "Comic Book Guy" Albertson</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>selling comic books in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spouting movie trivia in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Thor Odinson</t>
+  </si>
+  <si>
+    <t>Norse mythology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Chewbacca</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>piloting the Millenium Falcon in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> doing the Kessel run in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Walt Disney</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Animation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a media empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ray Kroc</t>
+  </si>
+  <si>
+    <t>McDonalds and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Hamburger industry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a multinational corporation in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Spider-Man</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>maintaining a secret identity in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dorian Gray</t>
+  </si>
+  <si>
+    <t>The Picture of Dorian Gray and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>gadding about town in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> practicing good skin care in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Diana Ross</t>
   </si>
   <si>
     <t>Pop music and the Cthulu-Dagon mythos</t>
@@ -332,52 +377,7 @@
     <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t xml:space="preserve"> recording pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anne Frank</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>keeping a diary in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thomas "Neo" Anderson</t>
-  </si>
-  <si>
-    <t>The Matrix and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hacking into corporate mainframes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> nursing a messiah complex in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alexander the Great</t>
-  </si>
-  <si>
-    <t>War and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>building empires in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bob Belcher</t>
-  </si>
-  <si>
-    <t>Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flipping hamburgers in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
         <v>1.2116538483599256E-4</v>
@@ -545,10 +545,10 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
         <v>1.6590053415374052E-4</v>
@@ -559,10 +559,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
         <v>2.2515043501124092E-4</v>
@@ -570,10 +570,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>6</v>
@@ -584,10 +584,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
         <v>6</v>
@@ -598,10 +598,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
         <v>6</v>
@@ -612,13 +612,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
         <v>6.99086164291921E-4</v>
@@ -626,13 +626,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
         <v>9.07683963941894E-4</v>
@@ -640,13 +640,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
         <v>0.001168138695793255</v>
@@ -654,13 +654,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D17" t="n">
         <v>0.0014900812537872107</v>
@@ -668,13 +668,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D18" t="n">
         <v>0.0018840016754918384</v>
@@ -682,13 +682,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D19" t="n">
         <v>0.002361067548715852</v>
@@ -702,7 +702,7 @@
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D20" t="n">
         <v>0.0029328600106741255</v>
@@ -716,7 +716,7 @@
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D21" t="n">
         <v>0.0036110213053512363</v>
@@ -730,7 +730,7 @@
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D22" t="n">
         <v>0.0044068124026820366</v>
@@ -744,7 +744,7 @@
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
         <v>0.005330584980021411</v>
@@ -758,7 +758,7 @@
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
         <v>0.0063911789222748615</v>
@@ -772,7 +772,7 @@
         <v>38</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
         <v>0.007595264061180086</v>
@@ -786,7 +786,7 @@
         <v>40</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
         <v>0.008946652646718234</v>
@@ -800,7 +800,7 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
         <v>0.010445616395281576</v>
@@ -814,7 +814,7 @@
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
         <v>0.012088248170396942</v>
@@ -828,7 +828,7 @@
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D29" t="n">
         <v>0.013865912669682012</v>
@@ -842,7 +842,7 @@
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D30" t="n">
         <v>0.015764832202922185</v>
@@ -856,7 +856,7 @@
         <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D31" t="n">
         <v>0.017765852157898</v>
@@ -870,7 +870,7 @@
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D32" t="n">
         <v>0.01984442567328898</v>
@@ -884,7 +884,7 @@
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D33" t="n">
         <v>0.021970848257553632</v>
@@ -892,10 +892,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
         <v>6</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
@@ -920,7 +920,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
@@ -934,13 +934,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D37" t="n">
         <v>0.030216070698754538</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D38" t="n">
         <v>0.03200554893808563</v>
@@ -962,13 +962,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D39" t="n">
         <v>0.03360225115908563</v>
@@ -976,13 +976,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D40" t="n">
         <v>0.03496771613729857</v>
@@ -990,13 +990,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D41" t="n">
         <v>0.03606799189852329</v>
@@ -1004,13 +1004,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D42" t="n">
         <v>0.03687503661171873</v>
@@ -1018,13 +1018,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D43" t="n">
         <v>0.037367905689559236</v>
@@ -1032,13 +1032,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D44" t="n">
         <v>0.03753365498052602</v>
@@ -1046,13 +1046,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D45" t="n">
         <v>0.03736790568955906</v>
@@ -1060,13 +1060,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D46" t="n">
         <v>0.036875036611718905</v>
@@ -1074,13 +1074,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D47" t="n">
         <v>0.036067991898523125</v>
@@ -1088,13 +1088,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D48" t="n">
         <v>0.03496771613729874</v>
@@ -1102,13 +1102,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B49" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D49" t="n">
         <v>0.03360225115908563</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
         <v>0.03200554893808549</v>
@@ -1136,7 +1136,7 @@
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D51" t="n">
         <v>0.030216070698754705</v>
@@ -1150,7 +1150,7 @@
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D52" t="n">
         <v>0.028275252793314554</v>
@@ -1164,7 +1164,7 @@
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D53" t="n">
         <v>0.02622592442958993</v>
@@ -1178,7 +1178,7 @@
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
         <v>0.024110760824569588</v>
@@ -1192,7 +1192,7 @@
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
         <v>0.02197084825755352</v>
@@ -1206,7 +1206,7 @@
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
         <v>0.01984442567328909</v>
@@ -1242,13 +1242,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D59" t="n">
         <v>0.013865912669682012</v>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B60" t="s">
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D60" t="n">
         <v>0.012088248170396942</v>
@@ -1270,13 +1270,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
         <v>0.01044561639528141</v>
@@ -1284,13 +1284,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
         <v>0.0089466526467184</v>
@@ -1298,13 +1298,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D63" t="n">
         <v>0.0075952640611800445</v>
@@ -1312,13 +1312,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D64" t="n">
         <v>0.006391178922274903</v>
@@ -1326,13 +1326,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D65" t="n">
         <v>0.005330584980021411</v>
@@ -1340,13 +1340,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D66" t="n">
         <v>0.00440681240268203</v>
@@ -1354,13 +1354,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D67" t="n">
         <v>0.0036110213053512433</v>
@@ -1368,13 +1368,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68" t="s">
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D68" t="n">
         <v>0.0029328600106741255</v>
@@ -1382,13 +1382,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D69" t="n">
         <v>0.0023610675487158693</v>
@@ -1396,13 +1396,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D70" t="n">
         <v>0.001884001675491821</v>
@@ -1410,13 +1410,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
         <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D71" t="n">
         <v>0.0014900812537872081</v>
@@ -1424,10 +1424,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -1438,13 +1438,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
         <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D73" t="n">
         <v>9.07683963941894E-4</v>
@@ -1452,13 +1452,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
         <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D74" t="n">
         <v>6.99086164291915E-4</v>
@@ -1466,13 +1466,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
         <v>5.336819845047447E-4</v>
@@ -1480,13 +1480,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
         <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
         <v>4.038221798415987E-4</v>
@@ -1494,13 +1494,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B77" t="s">
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D77" t="n">
         <v>3.028681361875418E-4</v>
@@ -1514,7 +1514,7 @@
         <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D78" t="n">
         <v>2.2515043501124168E-4</v>
@@ -1528,7 +1528,7 @@
         <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D79" t="n">
         <v>1.6590053415374052E-4</v>
@@ -1542,7 +1542,7 @@
         <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="D80" t="n">
         <v>1.2116538483599256E-4</v>
@@ -1556,7 +1556,7 @@
         <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D81" t="n">
         <v>8.771323619352105E-5</v>
@@ -1570,7 +1570,7 @@
         <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D82" t="n">
         <v>6.293721039070545E-5</v>
@@ -1584,7 +1584,7 @@
         <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D83" t="n">
         <v>4.476160284944025E-5</v>

--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -26,358 +26,358 @@
     <t>Probability</t>
   </si>
   <si>
+    <t>Barney Rubble</t>
+  </si>
+  <si>
+    <t>Bedrock and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Groucho Marx</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Marx Brothers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Donald Duck</t>
+  </si>
+  <si>
+    <t>Walt Disney animation and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eating Peking duck in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> setting mousetraps in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Chris Rock</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Dean</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sarah Jessica Parker</t>
+  </si>
+  <si>
+    <t>Sex and the City and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Manhattan and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Boris Johnson</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the British Right the Conservative Party and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making political gaffes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigel Tufnel</t>
+  </si>
+  <si>
+    <t>Spinal Tap and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing rock music in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Partridge</t>
+  </si>
+  <si>
+    <t>Regional Radio and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>hosting radio shows in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Freddie Mercury</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>General Zod</t>
+  </si>
+  <si>
+    <t>DC Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tarzan</t>
+  </si>
+  <si>
+    <t>the Jungle and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>swinging from tree to tree in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> communicating with animals in Dagon-worshipping societies</t>
+  </si>
+  <si>
     <t>Otto von Bismarck</t>
   </si>
   <si>
     <t>German history and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Jeremy Paxman</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the News and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>interviewing politicians in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Daniel Day-Lewis</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Marilyn Monroe</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tony Blair</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the British Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Labour Party and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Dr. Henry Jekyll</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Father Ted</t>
-  </si>
-  <si>
-    <t>Comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>preaching tolerance in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading Christianity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>the Marx Brothers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>defending the weak in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> wallowing in mud in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rupert Murdoch</t>
-  </si>
-  <si>
-    <t>the Newspaper industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Fox News and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a media empire in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Moe Szyslak</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>serving beer in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lisa Simpson</t>
-  </si>
-  <si>
-    <t>playing the saxophone in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> over-achieving at school in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Michael Phelps</t>
-  </si>
-  <si>
-    <t>Swimming and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>winning gold medals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> winning swimming competitions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Holly Golightly</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Green Lantern</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Alien Science and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ronald McDonald</t>
-  </si>
-  <si>
-    <t>McDonalds and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hamburger industry and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flipping hamburgers in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sir Hugo Drax</t>
-  </si>
-  <si>
-    <t>James Bond and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Terrorism and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Finance and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Barbra Streisand</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing torch songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ross Geller</t>
-  </si>
-  <si>
-    <t>Friends and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>studying paleontology in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> studying dinosaurs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Larry Flynt</t>
-  </si>
-  <si>
-    <t>Hustler Magazine and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Soft pornography and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>publishing soft pornography in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ellen DeGeneres</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>interviewing celebrities in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stanley Kowalski</t>
-  </si>
-  <si>
-    <t>A Street Car Named Desire and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>moaning about women in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Tom Hanks</t>
+    <t>Sarah Silverman</t>
+  </si>
+  <si>
+    <t>Stand-Up Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> insulting minorities in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Matt Groening</t>
+  </si>
+  <si>
+    <t>The Simpsons and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing comedy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elizabethan theatre and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting boxing fights in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>the American War of Independence and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>leading revolutions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for liberty in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Karl Rove</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Steve Bannon</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Adam Sandler</t>
+  </si>
+  <si>
+    <t>making dumb comedies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Malcolm X</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Escapology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stage Magic and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Joaquin Phoenix</t>
   </si>
   <si>
     <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> playing everyman characters in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeff "Comic Book Guy" Albertson</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>selling comic books in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spouting movie trivia in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Thor Odinson</t>
-  </si>
-  <si>
-    <t>Norse mythology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Avengers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Chewbacca</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>piloting the Millenium Falcon in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> doing the Kessel run in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Walt Disney</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Animation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a media empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ray Kroc</t>
-  </si>
-  <si>
-    <t>McDonalds and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Hamburger industry and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a multinational corporation in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Spider-Man</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>maintaining a secret identity in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dorian Gray</t>
-  </si>
-  <si>
-    <t>The Picture of Dorian Gray and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>gadding about town in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> practicing good skin care in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Diana Ross</t>
+    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mark Fuhrman</t>
+  </si>
+  <si>
+    <t>the Law and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Crime and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reality TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Tony Soprano</t>
+  </si>
+  <si>
+    <t>the New Jersey Mob and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> New Jersey and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Daniel Craig</t>
+  </si>
+  <si>
+    <t>Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> James Bond and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> playing James Bond in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hans Gruber</t>
+  </si>
+  <si>
+    <t>Die Hard and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Nakatomi building and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>organizing armed robberies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Raymond Chandler</t>
+  </si>
+  <si>
+    <t>Detective fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing mystery stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing detective fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bing Crosby</t>
   </si>
   <si>
     <t>Pop music and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> Love songs and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -534,7 +534,7 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
         <v>1.2116538483599256E-4</v>
@@ -548,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
         <v>1.6590053415374052E-4</v>
@@ -562,7 +562,7 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
         <v>2.2515043501124092E-4</v>
@@ -576,7 +576,7 @@
         <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
         <v>3.0286813618754255E-4</v>
@@ -590,7 +590,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
         <v>4.038221798415987E-4</v>
@@ -598,13 +598,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D13" t="n">
         <v>5.336819845047386E-4</v>
@@ -612,13 +612,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D14" t="n">
         <v>6.99086164291921E-4</v>
@@ -626,13 +626,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D15" t="n">
         <v>9.07683963941894E-4</v>
@@ -640,13 +640,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D16" t="n">
         <v>0.001168138695793255</v>
@@ -657,10 +657,10 @@
         <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D17" t="n">
         <v>0.0014900812537872107</v>
@@ -674,7 +674,7 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D18" t="n">
         <v>0.0018840016754918384</v>
@@ -682,13 +682,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D19" t="n">
         <v>0.002361067548715852</v>
@@ -696,13 +696,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D20" t="n">
         <v>0.0029328600106741255</v>
@@ -710,13 +710,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D21" t="n">
         <v>0.0036110213053512363</v>
@@ -724,13 +724,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
         <v>0.0044068124026820366</v>
@@ -738,13 +738,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
         <v>0.005330584980021411</v>
@@ -752,13 +752,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
         <v>0.0063911789222748615</v>
@@ -766,13 +766,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
         <v>0.007595264061180086</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -794,13 +794,13 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D27" t="n">
         <v>0.010445616395281576</v>
@@ -808,13 +808,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D28" t="n">
         <v>0.012088248170396942</v>
@@ -822,13 +822,13 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
         <v>0.013865912669682012</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D30" t="n">
         <v>0.015764832202922185</v>
@@ -850,13 +850,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
         <v>0.017765852157898</v>
@@ -864,13 +864,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
         <v>0.01984442567328898</v>
@@ -878,13 +878,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
         <v>0.021970848257553632</v>
@@ -892,7 +892,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
@@ -906,7 +906,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
@@ -920,13 +920,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D36" t="n">
         <v>0.028275252793314554</v>
@@ -934,13 +934,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D37" t="n">
         <v>0.030216070698754538</v>
@@ -948,13 +948,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D38" t="n">
         <v>0.03200554893808563</v>
@@ -968,7 +968,7 @@
         <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D39" t="n">
         <v>0.03360225115908563</v>
@@ -982,7 +982,7 @@
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D40" t="n">
         <v>0.03496771613729857</v>
@@ -996,7 +996,7 @@
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D41" t="n">
         <v>0.03606799189852329</v>
@@ -1010,7 +1010,7 @@
         <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D42" t="n">
         <v>0.03687503661171873</v>
@@ -1024,7 +1024,7 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D43" t="n">
         <v>0.037367905689559236</v>
@@ -1038,7 +1038,7 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D44" t="n">
         <v>0.03753365498052602</v>
@@ -1052,7 +1052,7 @@
         <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D45" t="n">
         <v>0.03736790568955906</v>
@@ -1066,7 +1066,7 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D46" t="n">
         <v>0.036875036611718905</v>
@@ -1080,7 +1080,7 @@
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D47" t="n">
         <v>0.036067991898523125</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D50" t="n">
         <v>0.03200554893808549</v>
@@ -1130,13 +1130,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D51" t="n">
         <v>0.030216070698754705</v>
@@ -1144,13 +1144,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D52" t="n">
         <v>0.028275252793314554</v>
@@ -1158,13 +1158,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D53" t="n">
         <v>0.02622592442958993</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
@@ -1186,7 +1186,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
@@ -1200,13 +1200,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="D56" t="n">
         <v>0.01984442567328909</v>
@@ -1214,13 +1214,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D57" t="n">
         <v>0.017765852157898</v>
@@ -1228,13 +1228,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D58" t="n">
         <v>0.015764832202922185</v>
@@ -1248,7 +1248,7 @@
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
         <v>0.013865912669682012</v>
@@ -1256,13 +1256,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
         <v>0.012088248170396942</v>
@@ -1270,13 +1270,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B61" t="s">
         <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
         <v>0.01044561639528141</v>
@@ -1284,13 +1284,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
         <v>0.0089466526467184</v>
@@ -1304,7 +1304,7 @@
         <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
         <v>0.0075952640611800445</v>
@@ -1318,7 +1318,7 @@
         <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
         <v>0.006391178922274903</v>
@@ -1332,7 +1332,7 @@
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
         <v>0.005330584980021411</v>
@@ -1346,7 +1346,7 @@
         <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D66" t="n">
         <v>0.00440681240268203</v>
@@ -1360,7 +1360,7 @@
         <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D67" t="n">
         <v>0.0036110213053512433</v>
@@ -1374,7 +1374,7 @@
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D68" t="n">
         <v>0.0029328600106741255</v>
@@ -1388,7 +1388,7 @@
         <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D69" t="n">
         <v>0.0023610675487158693</v>
@@ -1402,7 +1402,7 @@
         <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D70" t="n">
         <v>0.001884001675491821</v>
@@ -1416,7 +1416,7 @@
         <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D71" t="n">
         <v>0.0014900812537872081</v>
@@ -1430,7 +1430,7 @@
         <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
         <v>0.0011681386957932576</v>
@@ -1444,7 +1444,7 @@
         <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
         <v>9.07683963941894E-4</v>
@@ -1458,7 +1458,7 @@
         <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
         <v>6.99086164291915E-4</v>
@@ -1472,7 +1472,7 @@
         <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D75" t="n">
         <v>5.336819845047447E-4</v>
@@ -1486,7 +1486,7 @@
         <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D76" t="n">
         <v>4.038221798415987E-4</v>
@@ -1500,7 +1500,7 @@
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D77" t="n">
         <v>3.028681361875418E-4</v>
@@ -1514,7 +1514,7 @@
         <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D78" t="n">
         <v>2.2515043501124168E-4</v>
@@ -1528,7 +1528,7 @@
         <v>112</v>
       </c>
       <c r="C79" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
         <v>1.6590053415374052E-4</v>
@@ -1542,7 +1542,7 @@
         <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
         <v>1.2116538483599256E-4</v>
@@ -1556,7 +1556,7 @@
         <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
         <v>8.771323619352105E-5</v>
@@ -1570,7 +1570,7 @@
         <v>116</v>
       </c>
       <c r="C82" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D82" t="n">
         <v>6.293721039070545E-5</v>
@@ -1584,7 +1584,7 @@
         <v>117</v>
       </c>
       <c r="C83" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="D83" t="n">
         <v>4.476160284944025E-5</v>
@@ -1598,7 +1598,7 @@
         <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D84" t="n">
         <v>3.1554372945651076E-5</v>
@@ -1612,7 +1612,7 @@
         <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D85" t="n">
         <v>2.204800315823463E-5</v>
@@ -1626,7 +1626,7 @@
         <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D86" t="n">
         <v>1.5269849384469977E-5</v>

--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="123">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,358 +26,361 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Barney Rubble</t>
-  </si>
-  <si>
-    <t>Bedrock and the Dagon mythos</t>
+    <t>Don Vito Corleone</t>
+  </si>
+  <si>
+    <t>the Mafia and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Groucho Marx</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
+    <t xml:space="preserve"> The Godfather and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Lennon</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Keith Moon</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
+    <t>playing drums in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> raising cain in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Sauron</t>
+  </si>
+  <si>
+    <t>Lord of the Rings and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Middle Earth and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mordor and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Iggy Pop</t>
+  </si>
+  <si>
+    <t>Music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jazz and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>O.J. Simpson</t>
+  </si>
+  <si>
+    <t>American football and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing golf in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bruce Banner</t>
+  </si>
+  <si>
+    <t>Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>flying into a rage in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>the Circus and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Showmanship and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Uriah Heap</t>
+  </si>
+  <si>
+    <t>David Copperfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dian Fossey</t>
+  </si>
+  <si>
+    <t>Rwanda and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Gorillas and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Zoology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Neville Chamberlain</t>
+  </si>
+  <si>
+    <t>World War II and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>appeasing belligerent dictators in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Warren Buffett</t>
+  </si>
+  <si>
+    <t>Big business and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern finance and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>running a business empire in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Wyatt Earp</t>
+  </si>
+  <si>
+    <t>The Old West and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Westerns and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>arresting criminals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Andrew Lloyd Webber</t>
+  </si>
+  <si>
+    <t>Musicals and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Musical Theatre and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making insipid musicals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Melania Trump</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>posing for photographs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Newt Gingrich</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Woody Guthrie</t>
+  </si>
+  <si>
+    <t>Folk music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Angela Merkel</t>
+  </si>
+  <si>
+    <t>Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Germany and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jar Jar Binks</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gore Vidal</t>
+  </si>
+  <si>
+    <t>American literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Garry Trudeau</t>
+  </si>
+  <si>
+    <t>Doonesbury and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Political Cartoons and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>drawing political cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Shirley Temple</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Offred</t>
+  </si>
+  <si>
+    <t>Science Fiction and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Handmaid's Tale and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>performing household chores in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kobe Bryant</t>
+  </si>
+  <si>
+    <t>Basketball and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing basketball in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robbie Williams</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Take That and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jerry Seinfeld</t>
+  </si>
+  <si>
+    <t>The Seinfeld Chronicles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alan Greenspan</t>
+  </si>
+  <si>
+    <t>Economics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>talking up the economy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigella Lawson</t>
+  </si>
+  <si>
+    <t>Cooking and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Noël Coward</t>
+  </si>
+  <si>
+    <t>British theatre and the Cthulu mythos</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Marx Brothers and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Donald Duck</t>
-  </si>
-  <si>
-    <t>Walt Disney animation and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>eating Peking duck in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> setting mousetraps in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Chris Rock</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>cross-dressing in women's clothes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>James Dean</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sarah Jessica Parker</t>
-  </si>
-  <si>
-    <t>Sex and the City and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Manhattan and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>shopping for shoes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Boris Johnson</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the British Right the Conservative Party and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making political gaffes in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigel Tufnel</t>
-  </si>
-  <si>
-    <t>Spinal Tap and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Heavy Metal and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>playing rock music in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Partridge</t>
-  </si>
-  <si>
-    <t>Regional Radio and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>hosting radio shows in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Freddie Mercury</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>General Zod</t>
-  </si>
-  <si>
-    <t>DC Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Krypton and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Science Fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Tarzan</t>
-  </si>
-  <si>
-    <t>the Jungle and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>swinging from tree to tree in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> communicating with animals in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>German history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sarah Silverman</t>
-  </si>
-  <si>
-    <t>Stand-Up Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>doing stand-up in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> insulting minorities in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Matt Groening</t>
-  </si>
-  <si>
-    <t>The Simpsons and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing comedy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>English literature and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Elizabethan theatre and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Don King</t>
-  </si>
-  <si>
-    <t>Boxing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting boxing fights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>George Washington</t>
-  </si>
-  <si>
-    <t>the American War of Independence and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>leading revolutions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fighting for liberty in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Karl Rove</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Steve Bannon</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Adam Sandler</t>
-  </si>
-  <si>
-    <t>making dumb comedies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Malcolm X</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Race Relations and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Black liberation and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Escapology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stage Magic and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Joaquin Phoenix</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in action movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in indy movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mark Fuhrman</t>
-  </si>
-  <si>
-    <t>the Law and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Crime and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Reality TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Tony Soprano</t>
-  </si>
-  <si>
-    <t>the New Jersey Mob and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> New Jersey and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Daniel Craig</t>
-  </si>
-  <si>
-    <t>Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> James Bond and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> playing James Bond in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hans Gruber</t>
-  </si>
-  <si>
-    <t>Die Hard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Nakatomi building and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>organizing armed robberies in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Raymond Chandler</t>
-  </si>
-  <si>
-    <t>Detective fiction and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing mystery stories in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing detective fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bing Crosby</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Love songs and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing middle-of-the-road songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>writing plays in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -453,7 +456,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5269849384470113E-5</v>
+        <v>1.505783055364567E-5</v>
       </c>
     </row>
     <row r="3">
@@ -467,7 +470,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2048003158234494E-5</v>
+        <v>2.1651536583204518E-5</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.1554372945651076E-5</v>
+        <v>3.086452805560744E-5</v>
       </c>
     </row>
     <row r="5">
@@ -495,7 +498,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.476160284943998E-5</v>
+        <v>4.3618945181192063E-5</v>
       </c>
     </row>
     <row r="6">
@@ -509,7 +512,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>6.293721039070572E-5</v>
+        <v>6.111323578402071E-5</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +526,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>8.771323619352105E-5</v>
+        <v>8.488676861496594E-5</v>
       </c>
     </row>
     <row r="8">
@@ -534,10 +537,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>1.2116538483599256E-4</v>
+        <v>1.1689322142142652E-4</v>
       </c>
     </row>
     <row r="9">
@@ -545,13 +548,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>1.6590053415374052E-4</v>
+        <v>1.595817624250387E-4</v>
       </c>
     </row>
     <row r="10">
@@ -559,228 +562,228 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>2.2515043501124092E-4</v>
+        <v>2.1598410522086274E-4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>3.0286813618754255E-4</v>
+        <v>2.898043709736888E-4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>4.038221798415987E-4</v>
+        <v>3.855073630913083E-4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D13" t="n">
-        <v>5.336819845047386E-4</v>
+        <v>5.083994008726104E-4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>6.99086164291921E-4</v>
+        <v>6.646943545436847E-4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>9.07683963941894E-4</v>
+        <v>8.615560933513725E-4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001168138695793255</v>
+        <v>0.001107107352715952</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0014900812537872107</v>
+        <v>0.0014103942251250208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0018840016754918384</v>
+        <v>0.0017812952787859193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
         <v>30</v>
       </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002361067548715852</v>
+        <v>0.0022303649055994993</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
       </c>
       <c r="C20" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0029328600106741255</v>
+        <v>0.002768602073801108</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
       </c>
       <c r="C21" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0036110213053512363</v>
+        <v>0.003407138344583718</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" t="s">
         <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
       </c>
       <c r="C22" t="s">
         <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0044068124026820366</v>
+        <v>0.004156842869608986</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>0.005330584980021411</v>
+        <v>0.0050278470850103375</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0063911789222748615</v>
+        <v>0.006028997807761845</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>0.007595264061180086</v>
+        <v>0.007167254142553786</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -789,194 +792,194 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008946652646718234</v>
+        <v>0.008447050610743002</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
         <v>41</v>
       </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>0.010445616395281576</v>
+        <v>0.009869655688586887</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>0.012088248170396942</v>
+        <v>0.011432560872336073</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>0.013865912669682012</v>
+        <v>0.013128939812225127</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
       <c r="D30" t="n">
-        <v>0.015764832202922185</v>
+        <v>0.014947219331531203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>0.017765852157898</v>
+        <v>0.016870803711083293</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D32" t="n">
-        <v>0.01984442567328898</v>
+        <v>0.018877990070226114</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D33" t="n">
-        <v>0.021970848257553632</v>
+        <v>0.020942105831001756</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0241107608245697</v>
+        <v>0.023031889205752942</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D35" t="n">
-        <v>0.02622592442958982</v>
+        <v>0.025112120796158655</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.028275252793314554</v>
+        <v>0.02714449943490027</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>0.030216070698754538</v>
+        <v>0.029088739313355316</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03200554893808563</v>
+        <v>0.030903849400578998</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03360225115908563</v>
+        <v>0.03254954146350572</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
@@ -985,12 +988,12 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03496771613729857</v>
+        <v>0.03398770093550979</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
@@ -999,91 +1002,91 @@
         <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03606799189852329</v>
+        <v>0.03518384661026934</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
       <c r="C42" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03687503661171873</v>
+        <v>0.036108501568554774</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D43" t="n">
-        <v>0.037367905689559236</v>
+        <v>0.03673839942888419</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03753365498052602</v>
+        <v>0.0370574570707446</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" t="s">
         <v>65</v>
       </c>
-      <c r="B45" t="s">
-        <v>66</v>
-      </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03736790568955906</v>
+        <v>0.0370574570707446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B46" t="s">
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D46" t="n">
-        <v>0.036875036611718905</v>
+        <v>0.036738399428884315</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>0.036067991898523125</v>
+        <v>0.036108501568554566</v>
       </c>
     </row>
     <row r="48">
@@ -1097,7 +1100,7 @@
         <v>11</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03496771613729874</v>
+        <v>0.035183846610269284</v>
       </c>
     </row>
     <row r="49">
@@ -1111,68 +1114,68 @@
         <v>11</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03360225115908563</v>
+        <v>0.03398770093550993</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s">
         <v>72</v>
       </c>
-      <c r="B50" t="s">
-        <v>73</v>
-      </c>
       <c r="C50" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03200554893808549</v>
+        <v>0.03254954146350572</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
         <v>74</v>
       </c>
       <c r="C51" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D51" t="n">
-        <v>0.030216070698754705</v>
+        <v>0.030903849400578998</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D52" t="n">
-        <v>0.028275252793314554</v>
+        <v>0.029088739313355205</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" t="s">
         <v>76</v>
       </c>
-      <c r="B53" t="s">
-        <v>77</v>
-      </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02622592442958993</v>
+        <v>0.02714449943490016</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B54" t="s">
         <v>78</v>
@@ -1181,12 +1184,12 @@
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>0.024110760824569588</v>
+        <v>0.025112120796158877</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
         <v>79</v>
@@ -1195,49 +1198,49 @@
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02197084825755352</v>
+        <v>0.023031889205752942</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
+        <v>77</v>
+      </c>
+      <c r="B56" t="s">
         <v>80</v>
       </c>
-      <c r="B56" t="s">
-        <v>81</v>
-      </c>
       <c r="C56" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01984442567328909</v>
+        <v>0.020942105831001756</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B57" t="s">
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>0.017765852157898</v>
+        <v>0.018877990070226225</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>0.015764832202922185</v>
+        <v>0.016870803711083127</v>
       </c>
     </row>
     <row r="59">
@@ -1248,43 +1251,43 @@
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>0.013865912669682012</v>
+        <v>0.014947219331531258</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
         <v>86</v>
       </c>
-      <c r="B60" t="s">
-        <v>87</v>
-      </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>0.012088248170396942</v>
+        <v>0.013128939812225127</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D61" t="n">
-        <v>0.01044561639528141</v>
+        <v>0.011432560872336073</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B62" t="s">
         <v>89</v>
@@ -1293,40 +1296,40 @@
         <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0089466526467184</v>
+        <v>0.009869655688586942</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
         <v>90</v>
       </c>
-      <c r="B63" t="s">
-        <v>91</v>
-      </c>
       <c r="C63" t="s">
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0075952640611800445</v>
+        <v>0.008447050610742905</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>0.006391178922274903</v>
+        <v>0.0071672541425537376</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
@@ -1335,236 +1338,236 @@
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>0.005330584980021411</v>
+        <v>0.006028997807761935</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>92</v>
+      </c>
+      <c r="B66" t="s">
         <v>94</v>
       </c>
-      <c r="B66" t="s">
-        <v>95</v>
-      </c>
       <c r="C66" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.00440681240268203</v>
+        <v>0.0050278470850103375</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0036110213053512433</v>
+        <v>0.004156842869608986</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0029328600106741255</v>
+        <v>0.003407138344583697</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
+        <v>96</v>
+      </c>
+      <c r="B69" t="s">
         <v>98</v>
       </c>
-      <c r="B69" t="s">
-        <v>99</v>
-      </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0023610675487158693</v>
+        <v>0.0027686020738011026</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D70" t="n">
-        <v>0.001884001675491821</v>
+        <v>0.0022303649055995254</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
         <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0014900812537872081</v>
+        <v>0.0017812952787859193</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72" t="s">
         <v>102</v>
       </c>
-      <c r="B72" t="s">
-        <v>103</v>
-      </c>
       <c r="C72" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0011681386957932576</v>
+        <v>0.0014103942251250208</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>9.07683963941894E-4</v>
+        <v>0.0011071073527159432</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
         <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D74" t="n">
-        <v>6.99086164291915E-4</v>
+        <v>8.615560933513768E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>104</v>
+      </c>
+      <c r="B75" t="s">
         <v>106</v>
       </c>
-      <c r="B75" t="s">
-        <v>107</v>
-      </c>
       <c r="C75" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D75" t="n">
-        <v>5.336819845047447E-4</v>
+        <v>6.646943545436891E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C76" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>4.038221798415987E-4</v>
+        <v>5.083994008726104E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
         <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>3.028681361875418E-4</v>
+        <v>3.855073630913083E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="B78" t="s">
         <v>110</v>
       </c>
-      <c r="B78" t="s">
-        <v>111</v>
-      </c>
       <c r="C78" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>2.2515043501124168E-4</v>
+        <v>2.898043709736888E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B79" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D79" t="n">
-        <v>1.6590053415374052E-4</v>
+        <v>2.1598410522086155E-4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B80" t="s">
         <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D80" t="n">
-        <v>1.2116538483599256E-4</v>
+        <v>1.5958176242503988E-4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>112</v>
+      </c>
+      <c r="B81" t="s">
         <v>114</v>
       </c>
-      <c r="B81" t="s">
-        <v>115</v>
-      </c>
       <c r="C81" t="s">
         <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>8.771323619352105E-5</v>
+        <v>1.1689322142142652E-4</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
         <v>116</v>
@@ -1573,12 +1576,12 @@
         <v>11</v>
       </c>
       <c r="D82" t="n">
-        <v>6.293721039070545E-5</v>
+        <v>8.488676861496594E-5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
         <v>117</v>
@@ -1587,49 +1590,63 @@
         <v>11</v>
       </c>
       <c r="D83" t="n">
-        <v>4.476160284944025E-5</v>
+        <v>6.111323578402071E-5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>115</v>
+      </c>
+      <c r="B84" t="s">
         <v>118</v>
       </c>
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D84" t="n">
-        <v>3.1554372945651076E-5</v>
+        <v>4.361894518119189E-5</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B85" t="s">
         <v>120</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D85" t="n">
-        <v>2.204800315823463E-5</v>
+        <v>3.08645280556074E-5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
         <v>121</v>
       </c>
       <c r="C86" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D86" t="n">
-        <v>1.5269849384469977E-5</v>
+        <v>2.1651536583204735E-5</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87" t="s">
+        <v>122</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" t="n">
+        <v>1.505783055364567E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="120">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,361 +26,352 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Don Vito Corleone</t>
-  </si>
-  <si>
-    <t>the Mafia and the Dagon mythos</t>
+    <t>Freddie Mercury</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Robinson Crusoe</t>
+  </si>
+  <si>
+    <t>English literature and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> The Godfather and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>running a crime family in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Lennon</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu-Dagon mythos</t>
+    <t xml:space="preserve"> Desert Islands and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>making home-made clothes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Norma Desmond</t>
+  </si>
+  <si>
+    <t>Sunset Boulevard and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>clinging to past dreams in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Darth Maul</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting the Dark Side in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Timothy McGee</t>
+  </si>
+  <si>
+    <t>NCIS and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>solving mysteries in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lt. George Colthurst St Barleigh</t>
+  </si>
+  <si>
+    <t>the English class system and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>providing comic relief in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Hawking</t>
+  </si>
+  <si>
+    <t>Physics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Quentin Tarantino</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Keith Moon</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>CS</t>
-  </si>
-  <si>
-    <t>playing drums in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> raising cain in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Sauron</t>
-  </si>
-  <si>
-    <t>Lord of the Rings and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Middle Earth and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mordor and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Iggy Pop</t>
-  </si>
-  <si>
-    <t>Music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Jazz and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Blues music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>O.J. Simpson</t>
-  </si>
-  <si>
-    <t>American football and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing golf in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making threatening phone calls in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Bruce Banner</t>
-  </si>
-  <si>
-    <t>Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>flying into a rage in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> bursting out of shirts in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>P. T. Barnum</t>
-  </si>
-  <si>
-    <t>the Circus and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Showmanship and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting circus attractions in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>British comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Uriah Heap</t>
-  </si>
-  <si>
-    <t>David Copperfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Dian Fossey</t>
-  </si>
-  <si>
-    <t>Rwanda and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Gorillas and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Zoology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Neville Chamberlain</t>
-  </si>
-  <si>
-    <t>World War II and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>appeasing belligerent dictators in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Warren Buffett</t>
-  </si>
-  <si>
-    <t>Big business and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern finance and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>running a business empire in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Wyatt Earp</t>
-  </si>
-  <si>
-    <t>The Old West and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Westerns and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>arresting criminals in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Andrew Lloyd Webber</t>
-  </si>
-  <si>
-    <t>Musicals and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Musical Theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>making insipid musicals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Melania Trump</t>
+    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making violent movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Che Guevara</t>
+  </si>
+  <si>
+    <t>Cuban politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Morrissey</t>
+  </si>
+  <si>
+    <t>Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Alexander Fleming</t>
+  </si>
+  <si>
+    <t>Science and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Biology and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>studying science in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Otto von Bismarck</t>
+  </si>
+  <si>
+    <t>German history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Grace Kelly</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Monacco and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Dean Winchester</t>
+  </si>
+  <si>
+    <t>Horror and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Frida Kahlo</t>
+  </si>
+  <si>
+    <t>Mexican art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>painting colorful pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>David Letterman</t>
+  </si>
+  <si>
+    <t>Late-night TV and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chat Shows and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CBS and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Harvey Weinstein</t>
+  </si>
+  <si>
+    <t>chasing after women in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> seducing women in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> making movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johannes Gutenberg</t>
+  </si>
+  <si>
+    <t>Printing and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Hillary Clinton</t>
   </si>
   <si>
     <t>American politics and the Cthulu mythos</t>
   </si>
   <si>
-    <t>posing for photographs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Newt Gingrich</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Woody Guthrie</t>
-  </si>
-  <si>
-    <t>Folk music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>campaigning for environmental causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> campaigning for social causes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Angela Merkel</t>
-  </si>
-  <si>
-    <t>Politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> European politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Germany and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jar Jar Binks</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Gore Vidal</t>
-  </si>
-  <si>
-    <t>American literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing modern fiction in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Garry Trudeau</t>
-  </si>
-  <si>
-    <t>Doonesbury and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Political Cartoons and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>drawing political cartoons in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Shirley Temple</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
+    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>King Lear</t>
+  </si>
+  <si>
+    <t>Shakespeare and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going senile in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Buzz Lightyear</t>
+  </si>
+  <si>
+    <t>Pixar and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Toy Story and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>falling gracefully in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Harriet Tubman</t>
+  </si>
+  <si>
+    <t>American history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>fighting for civil rights in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Howard Stern</t>
+  </si>
+  <si>
+    <t>Talk radio and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>shocking radio listeners in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Carl Lewis</t>
+  </si>
+  <si>
+    <t>Athletics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Olympics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>winning gold medals in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Erasmus</t>
+  </si>
+  <si>
+    <t>Humanism and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting humanism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jim Morrison</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Galileo Galilei</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Astronomy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>promoting Heliocentrism in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jay Gatsby</t>
+  </si>
+  <si>
+    <t>The Great Gatsby and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>throwing lavish parties in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Belushi</t>
+  </si>
+  <si>
+    <t>Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Orson Welles</t>
   </si>
   <si>
     <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Offred</t>
-  </si>
-  <si>
-    <t>Science Fiction and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Handmaid's Tale and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>performing household chores in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kobe Bryant</t>
-  </si>
-  <si>
-    <t>Basketball and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing basketball in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making dunk shots in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robbie Williams</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Take That and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jerry Seinfeld</t>
-  </si>
-  <si>
-    <t>The Seinfeld Chronicles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>doing stand-up in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alan Greenspan</t>
-  </si>
-  <si>
-    <t>Economics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>talking up the economy in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigella Lawson</t>
-  </si>
-  <si>
-    <t>Cooking and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Kitchen and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking dinners in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Noël Coward</t>
-  </si>
-  <si>
-    <t>British theatre and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing plays in Cthulhu-worshipping societies</t>
+    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>directing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -456,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.505783055364567E-5</v>
+        <v>1.5712109037655364E-5</v>
       </c>
     </row>
     <row r="3">
@@ -470,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.1651536583204518E-5</v>
+        <v>2.2882974782502155E-5</v>
       </c>
     </row>
     <row r="4">
@@ -484,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.086452805560744E-5</v>
+        <v>3.301861938558835E-5</v>
       </c>
     </row>
     <row r="5">
@@ -498,7 +489,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.3618945181192063E-5</v>
+        <v>4.720345305784465E-5</v>
       </c>
     </row>
     <row r="6">
@@ -512,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>6.111323578402071E-5</v>
+        <v>6.685856663314933E-5</v>
       </c>
     </row>
     <row r="7">
@@ -526,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>8.488676861496594E-5</v>
+        <v>9.382288586223318E-5</v>
       </c>
     </row>
     <row r="8">
@@ -537,10 +528,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D8" t="n">
-        <v>1.1689322142142652E-4</v>
+        <v>1.3044545353947022E-4</v>
       </c>
     </row>
     <row r="9">
@@ -548,13 +539,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D9" t="n">
-        <v>1.595817624250387E-4</v>
+        <v>1.7968736598590222E-4</v>
       </c>
     </row>
     <row r="10">
@@ -562,228 +553,228 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D10" t="n">
-        <v>2.1598410522086274E-4</v>
+        <v>2.4523055113574927E-4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>2.898043709736888E-4</v>
+        <v>3.3158894511433506E-4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>3.855073630913083E-4</v>
+        <v>4.4421574738256683E-4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>5.083994008726104E-4</v>
+        <v>5.895983997792394E-4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>6.646943545436847E-4</v>
+        <v>7.753308807374694E-4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>8.615560933513725E-4</v>
+        <v>0.001010151023383744</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001107107352715952</v>
+        <v>0.001303929094273841</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
         <v>27</v>
       </c>
-      <c r="B17" t="s">
-        <v>28</v>
-      </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0014103942251250208</v>
+        <v>0.0016675930842951102</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0017812952787859193</v>
+        <v>0.0021129763580244017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0022303649055994993</v>
+        <v>0.002652574764543515</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
         <v>31</v>
       </c>
-      <c r="B20" t="s">
-        <v>32</v>
-      </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0.002768602073801108</v>
+        <v>0.0032992032661826737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003407138344583718</v>
+        <v>0.004065546738784504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D22" t="n">
-        <v>0.004156842869608986</v>
+        <v>0.00496360585532948</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0050278470850103375</v>
+        <v>0.006004046735196597</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D24" t="n">
-        <v>0.006028997807761845</v>
+        <v>0.007195471982361319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>0.007167254142553786</v>
+        <v>0.008543640303901062</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -792,12 +783,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.008447050610743002</v>
+        <v>0.010050671362960006</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -806,133 +797,133 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>0.009869655688586887</v>
+        <v>0.011714280995660964</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D28" t="n">
-        <v>0.011432560872336073</v>
+        <v>0.013527098443184227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D29" t="n">
-        <v>0.013128939812225127</v>
+        <v>0.015476120857530695</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
         <v>45</v>
       </c>
       <c r="C30" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D30" t="n">
-        <v>0.014947219331531203</v>
+        <v>0.017542360183192884</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>0.016870803711083293</v>
+        <v>0.019700732972561807</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>0.018877990070226114</v>
+        <v>0.021920234466040966</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
         <v>49</v>
       </c>
       <c r="C33" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D33" t="n">
-        <v>0.020942105831001756</v>
+        <v>0.02416442447891065</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D34" t="n">
-        <v>0.023031889205752942</v>
+        <v>0.026392234869326625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D35" t="n">
-        <v>0.025112120796158655</v>
+        <v>0.028559087662930138</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
         <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D36" t="n">
-        <v>0.02714449943490027</v>
+        <v>0.03061829073868061</v>
       </c>
     </row>
     <row r="37">
@@ -943,10 +934,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D37" t="n">
-        <v>0.029088739313355316</v>
+        <v>0.032522656101615754</v>
       </c>
     </row>
     <row r="38">
@@ -957,10 +948,10 @@
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D38" t="n">
-        <v>0.030903849400578998</v>
+        <v>0.034226266096593155</v>
       </c>
     </row>
     <row r="39">
@@ -971,10 +962,10 @@
         <v>57</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03254954146350572</v>
+        <v>0.035686297332261474</v>
       </c>
     </row>
     <row r="40">
@@ -988,7 +979,7 @@
         <v>11</v>
       </c>
       <c r="D40" t="n">
-        <v>0.03398770093550979</v>
+        <v>0.036864802230996724</v>
       </c>
     </row>
     <row r="41">
@@ -1002,7 +993,7 @@
         <v>11</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03518384661026934</v>
+        <v>0.03773034521835793</v>
       </c>
     </row>
     <row r="42">
@@ -1016,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="D42" t="n">
-        <v>0.036108501568554774</v>
+        <v>0.0382593952557892</v>
       </c>
     </row>
     <row r="43">
@@ -1027,10 +1018,10 @@
         <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03673839942888419</v>
+        <v>0.03843738866572659</v>
       </c>
     </row>
     <row r="44">
@@ -1041,10 +1032,10 @@
         <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0370574570707446</v>
+        <v>0.03825939525578885</v>
       </c>
     </row>
     <row r="45">
@@ -1055,10 +1046,10 @@
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0370574570707446</v>
+        <v>0.03773034521835811</v>
       </c>
     </row>
     <row r="46">
@@ -1069,10 +1060,10 @@
         <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D46" t="n">
-        <v>0.036738399428884315</v>
+        <v>0.03686480223099682</v>
       </c>
     </row>
     <row r="47">
@@ -1083,94 +1074,94 @@
         <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D47" t="n">
-        <v>0.036108501568554566</v>
+        <v>0.03568629733226136</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" t="s">
         <v>69</v>
       </c>
-      <c r="B48" t="s">
-        <v>70</v>
-      </c>
       <c r="C48" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D48" t="n">
-        <v>0.035183846610269284</v>
+        <v>0.0342262660965931</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B49" t="s">
         <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03398770093550993</v>
+        <v>0.03252265610161595</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
         <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D50" t="n">
-        <v>0.03254954146350572</v>
+        <v>0.030618290738680443</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51" t="s">
         <v>73</v>
       </c>
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D51" t="n">
-        <v>0.030903849400578998</v>
+        <v>0.02855908766293025</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
         <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>0.029088739313355205</v>
+        <v>0.026392234869326403</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B53" t="s">
         <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>0.02714449943490016</v>
+        <v>0.024164424478910818</v>
       </c>
     </row>
     <row r="54">
@@ -1181,10 +1172,10 @@
         <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D54" t="n">
-        <v>0.025112120796158877</v>
+        <v>0.021920234466040966</v>
       </c>
     </row>
     <row r="55">
@@ -1195,10 +1186,10 @@
         <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D55" t="n">
-        <v>0.023031889205752942</v>
+        <v>0.01970073297256164</v>
       </c>
     </row>
     <row r="56">
@@ -1209,10 +1200,10 @@
         <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D56" t="n">
-        <v>0.020942105831001756</v>
+        <v>0.01754236018319294</v>
       </c>
     </row>
     <row r="57">
@@ -1223,10 +1214,10 @@
         <v>82</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>0.018877990070226225</v>
+        <v>0.01547612085753075</v>
       </c>
     </row>
     <row r="58">
@@ -1237,10 +1228,10 @@
         <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>0.016870803711083127</v>
+        <v>0.013527098443184116</v>
       </c>
     </row>
     <row r="59">
@@ -1251,10 +1242,10 @@
         <v>85</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>0.014947219331531258</v>
+        <v>0.011714280995660964</v>
       </c>
     </row>
     <row r="60">
@@ -1265,10 +1256,10 @@
         <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D60" t="n">
-        <v>0.013128939812225127</v>
+        <v>0.010050671362960117</v>
       </c>
     </row>
     <row r="61">
@@ -1279,10 +1270,10 @@
         <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>0.011432560872336073</v>
+        <v>0.008543640303900951</v>
       </c>
     </row>
     <row r="62">
@@ -1293,10 +1284,10 @@
         <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>0.009869655688586942</v>
+        <v>0.007195471982361333</v>
       </c>
     </row>
     <row r="63">
@@ -1307,234 +1298,234 @@
         <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D63" t="n">
-        <v>0.008447050610742905</v>
+        <v>0.006004046735196614</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C64" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0071672541425537376</v>
+        <v>0.004963605855329449</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B65" t="s">
         <v>93</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D65" t="n">
-        <v>0.006028997807761935</v>
+        <v>0.004065546738784509</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" t="s">
         <v>94</v>
       </c>
       <c r="C66" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0050278470850103375</v>
+        <v>0.0032992032661826754</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D67" t="n">
-        <v>0.004156842869608986</v>
+        <v>0.002652574764543508</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B68" t="s">
         <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>0.003407138344583697</v>
+        <v>0.002112976358024406</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B69" t="s">
         <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0027686020738011026</v>
+        <v>0.0016675930842951162</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0022303649055995254</v>
+        <v>0.0013039290942738306</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B71" t="s">
         <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0017812952787859193</v>
+        <v>0.0010101510233837515</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0014103942251250208</v>
+        <v>7.753308807374672E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0011071073527159432</v>
+        <v>5.895983997792342E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
         <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D74" t="n">
-        <v>8.615560933513768E-4</v>
+        <v>4.4421574738256965E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>6.646943545436891E-4</v>
+        <v>3.315889451143343E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D76" t="n">
-        <v>5.083994008726104E-4</v>
+        <v>2.452305511357472E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C77" t="s">
         <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>3.855073630913083E-4</v>
+        <v>1.7968736598590222E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B78" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C78" t="s">
         <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>2.898043709736888E-4</v>
+        <v>1.3044545353947104E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D79" t="n">
-        <v>2.1598410522086155E-4</v>
+        <v>9.382288586223236E-5</v>
       </c>
     </row>
     <row r="80">
@@ -1542,13 +1533,13 @@
         <v>112</v>
       </c>
       <c r="B80" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D80" t="n">
-        <v>1.5958176242503988E-4</v>
+        <v>6.68585666331496E-5</v>
       </c>
     </row>
     <row r="81">
@@ -1556,97 +1547,55 @@
         <v>112</v>
       </c>
       <c r="B81" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C81" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D81" t="n">
-        <v>1.1689322142142652E-4</v>
+        <v>4.7203453057844376E-5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>8.488676861496594E-5</v>
+        <v>3.301861938558857E-5</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C83" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D83" t="n">
-        <v>6.111323578402071E-5</v>
+        <v>2.288297478250206E-5</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C84" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D84" t="n">
-        <v>4.361894518119189E-5</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>119</v>
-      </c>
-      <c r="B85" t="s">
-        <v>120</v>
-      </c>
-      <c r="C85" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" t="n">
-        <v>3.08645280556074E-5</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>119</v>
-      </c>
-      <c r="B86" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" t="n">
-        <v>2.1651536583204735E-5</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>119</v>
-      </c>
-      <c r="B87" t="s">
-        <v>122</v>
-      </c>
-      <c r="C87" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" t="n">
-        <v>1.505783055364567E-5</v>
+        <v>1.5712109037655242E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,34 +26,109 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>Freddie Mercury</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu mythos</t>
+    <t>The Artful Dodger</t>
+  </si>
+  <si>
+    <t>Oliver Twist and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Courtney Love</t>
+  </si>
+  <si>
+    <t>Rock music and the Cthulu mythos</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t>singing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Robinson Crusoe</t>
-  </si>
-  <si>
-    <t>English literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Desert Islands and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>making home-made clothes in Dagon-worshipping societies</t>
+    <t xml:space="preserve"> Alternative Rock and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>playing grungy music in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Rush Limbaugh</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>CS+DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Leo Tolstoy</t>
+  </si>
+  <si>
+    <t>Russian literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> War And Peace and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing Russian novels in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Captain William Bligh</t>
+  </si>
+  <si>
+    <t>Mutiny on the Bounty and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Harry Houdini</t>
+  </si>
+  <si>
+    <t>Escapology and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Stage Magic and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Magic and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Jeffrey Lebowski</t>
+  </si>
+  <si>
+    <t>Bowling and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>going bowling in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> drinking White Russians in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Dan Quayle</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Right and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>campaigning for the senate in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>Norma Desmond</t>
@@ -68,310 +143,229 @@
     <t>clinging to past dreams in Dagon-worshipping societies</t>
   </si>
   <si>
-    <t>Darth Maul</t>
-  </si>
-  <si>
-    <t>Star Wars and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Dark Side and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting the Dark Side in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Timothy McGee</t>
-  </si>
-  <si>
-    <t>NCIS and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>solving mysteries in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> solving crimes in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lt. George Colthurst St Barleigh</t>
-  </si>
-  <si>
-    <t>the English class system and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>providing comic relief in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Hawking</t>
-  </si>
-  <si>
-    <t>Physics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cosmos and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Quentin Tarantino</t>
+    <t>Anton Chekov</t>
+  </si>
+  <si>
+    <t>writing plays about the middle classes in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeff Koons</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>making modern art in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Voltaire</t>
+  </si>
+  <si>
+    <t>the Enlightenment and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting liberal values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing novels in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Fletcher Christian</t>
+  </si>
+  <si>
+    <t>expressing dissent in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> plotting mutinies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> undermining authority in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ringo Starr</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kellyanne Conway</t>
+  </si>
+  <si>
+    <t>offering advice in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Optimus Prime</t>
+  </si>
+  <si>
+    <t>Transformers and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Autobots and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>fighting decepticons in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Nigel Farage</t>
+  </si>
+  <si>
+    <t>British politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brexit and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Waylon Smithers</t>
+  </si>
+  <si>
+    <t>Nuclear Power and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Agent Phil Coulson</t>
+  </si>
+  <si>
+    <t>S.H.I.E.L.D. and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>appreciating vintage collectibles in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jim Carrey</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>gurning for the camera in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>Children's tales and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>cooking for friends in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Stephen Colbert</t>
+  </si>
+  <si>
+    <t>Comedy Central and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>Ozzy Osbourne</t>
+  </si>
+  <si>
+    <t>Heavy Metal and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>Ancient philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Jesus Christ</t>
+  </si>
+  <si>
+    <t>Christianity and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Megan Fox</t>
   </si>
   <si>
     <t>Hollywood and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t>CS+DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Indie Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making violent movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Che Guevara</t>
-  </si>
-  <si>
-    <t>Cuban politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Cuban revolution and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Cuba and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Morrissey</t>
-  </si>
-  <si>
-    <t>Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Alexander Fleming</t>
-  </si>
-  <si>
-    <t>Science and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Biology and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>studying science in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Otto von Bismarck</t>
-  </si>
-  <si>
-    <t>German history and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> German politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>wielding political power in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Grace Kelly</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Monacco and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Dean Winchester</t>
-  </si>
-  <si>
-    <t>Horror and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Supernatural and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Demonology and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Frida Kahlo</t>
-  </si>
-  <si>
-    <t>Mexican art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>painting colorful pictures in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>David Letterman</t>
-  </si>
-  <si>
-    <t>Late-night TV and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Chat Shows and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CBS and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Harvey Weinstein</t>
-  </si>
-  <si>
-    <t>chasing after women in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> seducing women in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> making movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Johannes Gutenberg</t>
-  </si>
-  <si>
-    <t>Printing and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>pioneering new technologies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Hillary Clinton</t>
-  </si>
-  <si>
-    <t>American politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Left and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Democrats and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>King Lear</t>
-  </si>
-  <si>
-    <t>Shakespeare and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>going senile in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Buzz Lightyear</t>
-  </si>
-  <si>
-    <t>Pixar and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Toy Story and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>falling gracefully in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Harriet Tubman</t>
-  </si>
-  <si>
-    <t>American history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>fighting for civil rights in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Howard Stern</t>
-  </si>
-  <si>
-    <t>Talk radio and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>shocking radio listeners in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> hosting radio shows in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Carl Lewis</t>
-  </si>
-  <si>
-    <t>Athletics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Olympics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>winning gold medals in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Erasmus</t>
-  </si>
-  <si>
-    <t>Humanism and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting humanism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jim Morrison</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Galileo Galilei</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Astronomy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>promoting Heliocentrism in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jay Gatsby</t>
-  </si>
-  <si>
-    <t>The Great Gatsby and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>throwing lavish parties in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John Belushi</t>
-  </si>
-  <si>
-    <t>Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Movies and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Orson Welles</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> Serious Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>directing Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Monsieur Hulot</t>
+  </si>
+  <si>
+    <t>French comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>causing mayhem in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John McEnroe</t>
+  </si>
+  <si>
+    <t>Tennis and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>whining at umpires in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> delivering forehand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Holly Golightly</t>
+  </si>
+  <si>
+    <t>American literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Lindsay Lohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> starring in Hollywood movies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -447,7 +441,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.5712109037655364E-5</v>
+        <v>1.6180438057213975E-5</v>
       </c>
     </row>
     <row r="3">
@@ -461,7 +455,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.2882974782502155E-5</v>
+        <v>2.3778879399602822E-5</v>
       </c>
     </row>
     <row r="4">
@@ -475,7 +469,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.301861938558835E-5</v>
+        <v>3.4606648159877875E-5</v>
       </c>
     </row>
     <row r="5">
@@ -489,7 +483,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.720345305784465E-5</v>
+        <v>4.987635832806494E-5</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +497,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>6.685856663314933E-5</v>
+        <v>7.118639202404476E-5</v>
       </c>
     </row>
     <row r="7">
@@ -517,7 +511,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>9.382288586223318E-5</v>
+        <v>1.0061582101984621E-4</v>
       </c>
     </row>
     <row r="8">
@@ -528,10 +522,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D8" t="n">
-        <v>1.3044545353947022E-4</v>
+        <v>1.408324121491223E-4</v>
       </c>
     </row>
     <row r="9">
@@ -539,13 +533,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>1.7968736598590222E-4</v>
+        <v>1.9521177506472853E-4</v>
       </c>
     </row>
     <row r="10">
@@ -553,228 +547,228 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
-        <v>2.4523055113574927E-4</v>
+        <v>2.679640014793518E-4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="n">
-        <v>3.3158894511433506E-4</v>
+        <v>3.6426206953262116E-4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>4.4421574738256683E-4</v>
+        <v>4.903639110736733E-4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="n">
-        <v>5.895983997792394E-4</v>
+        <v>6.537174894502378E-4</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>7.753308807374694E-4</v>
+        <v>8.630357048031102E-4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001010151023383744</v>
+        <v>0.001128325696221504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.001303929094273841</v>
+        <v>0.0014608554708166726</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0016675930842951102</v>
+        <v>0.0018730401280102312</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0021129763580244017</v>
+        <v>0.0023782306457439924</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B19" t="s">
         <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002652574764543515</v>
+        <v>0.002990390607854103</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0032992032661826737</v>
+        <v>0.003723650652097451</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.004065546738784504</v>
+        <v>0.0045917369426470185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>0.00496360585532948</v>
+        <v>0.005607278562949243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D23" t="n">
-        <v>0.006004046735196597</v>
+        <v>0.006781009089692907</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D24" t="n">
-        <v>0.007195471982361319</v>
+        <v>0.008120889185335288</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" t="s">
-        <v>39</v>
-      </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>0.008543640303901062</v>
+        <v>0.00963118900819615</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -783,12 +777,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.010050671362960006</v>
+        <v>0.011311580526535081</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -797,301 +791,301 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>0.011714280995660964</v>
+        <v>0.013156299216547707</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
         <v>42</v>
       </c>
-      <c r="B28" t="s">
-        <v>43</v>
-      </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>0.013527098443184227</v>
+        <v>0.015153440850846023</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D29" t="n">
-        <v>0.015476120857530695</v>
+        <v>0.017284460953587544</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D30" t="n">
-        <v>0.017542360183192884</v>
+        <v>0.019523941056586502</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D31" t="n">
-        <v>0.019700732972561807</v>
+        <v>0.021839676569562372</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D32" t="n">
-        <v>0.021920234466040966</v>
+        <v>0.024193125825513917</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02416442447891065</v>
+        <v>0.02654023922951171</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D34" t="n">
-        <v>0.026392234869326625</v>
+        <v>0.028832662604103665</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D35" t="n">
-        <v>0.028559087662930138</v>
+        <v>0.031019281544431065</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03061829073868061</v>
+        <v>0.03304804608301548</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D37" t="n">
-        <v>0.032522656101615754</v>
+        <v>0.03486798968970481</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38" t="n">
-        <v>0.034226266096593155</v>
+        <v>0.03643133608136698</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>0.035686297332261474</v>
+        <v>0.03769557371443964</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D40" t="n">
-        <v>0.036864802230996724</v>
+        <v>0.038625372884032526</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03773034521835793</v>
+        <v>0.03919422501328561</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C42" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0382593952557892</v>
+        <v>0.03938569804998034</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03843738866572659</v>
+        <v>0.03919422501328543</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03825939525578885</v>
+        <v>0.03862537288403233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C45" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03773034521835811</v>
+        <v>0.03769557371443988</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C46" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D46" t="n">
-        <v>0.03686480223099682</v>
+        <v>0.036431336081367116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03568629733226136</v>
+        <v>0.03486798968970459</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0342262660965931</v>
+        <v>0.03304804608301537</v>
       </c>
     </row>
     <row r="49">
@@ -1099,13 +1093,13 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03252265610161595</v>
+        <v>0.031019281544431176</v>
       </c>
     </row>
     <row r="50">
@@ -1113,27 +1107,27 @@
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D50" t="n">
-        <v>0.030618290738680443</v>
+        <v>0.028832662604103887</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D51" t="n">
-        <v>0.02855908766293025</v>
+        <v>0.026540239229511597</v>
       </c>
     </row>
     <row r="52">
@@ -1141,13 +1135,13 @@
         <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
         <v>6</v>
       </c>
       <c r="D52" t="n">
-        <v>0.026392234869326403</v>
+        <v>0.02419312582551375</v>
       </c>
     </row>
     <row r="53">
@@ -1155,125 +1149,125 @@
         <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="D53" t="n">
-        <v>0.024164424478910818</v>
+        <v>0.021839676569562594</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>0.021920234466040966</v>
+        <v>0.019523941056586558</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>0.01970073297256164</v>
+        <v>0.017284460953587544</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>0.01754236018319294</v>
+        <v>0.015153440850845912</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B57" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D57" t="n">
-        <v>0.01547612085753075</v>
+        <v>0.013156299216547596</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D58" t="n">
-        <v>0.013527098443184116</v>
+        <v>0.011311580526535303</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D59" t="n">
-        <v>0.011714280995660964</v>
+        <v>0.00963118900819615</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D60" t="n">
-        <v>0.010050671362960117</v>
+        <v>0.008120889185335226</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C61" t="s">
         <v>11</v>
       </c>
       <c r="D61" t="n">
-        <v>0.008543640303900951</v>
+        <v>0.006781009089692952</v>
       </c>
     </row>
     <row r="62">
@@ -1281,13 +1275,13 @@
         <v>88</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D62" t="n">
-        <v>0.007195471982361333</v>
+        <v>0.00560727856294926</v>
       </c>
     </row>
     <row r="63">
@@ -1295,172 +1289,172 @@
         <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>0.006004046735196614</v>
+        <v>0.004591736942647008</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>0.004963605855329449</v>
+        <v>0.0037236506520974336</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>0.004065546738784509</v>
+        <v>0.0029903906078541202</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0032992032661826754</v>
+        <v>0.002378230645744003</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D67" t="n">
-        <v>0.002652574764543508</v>
+        <v>0.0018730401280102268</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C68" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D68" t="n">
-        <v>0.002112976358024406</v>
+        <v>0.0014608554708166648</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0016675930842951162</v>
+        <v>0.0011283256962215092</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B70" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0013039290942738306</v>
+        <v>8.630357048031172E-4</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0010101510233837515</v>
+        <v>6.537174894502345E-4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B72" t="s">
         <v>103</v>
       </c>
       <c r="C72" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D72" t="n">
-        <v>7.753308807374672E-4</v>
+        <v>4.903639110736713E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C73" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>5.895983997792342E-4</v>
+        <v>3.6426206953262495E-4</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C74" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>4.4421574738256965E-4</v>
+        <v>2.679640014793532E-4</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B75" t="s">
         <v>107</v>
@@ -1469,49 +1463,49 @@
         <v>6</v>
       </c>
       <c r="D75" t="n">
-        <v>3.315889451143343E-4</v>
+        <v>1.9521177506472853E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D76" t="n">
-        <v>2.452305511357472E-4</v>
+        <v>1.408324121491216E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
         <v>110</v>
       </c>
       <c r="C77" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D77" t="n">
-        <v>1.7968736598590222E-4</v>
+        <v>1.0061582101984691E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B78" t="s">
         <v>111</v>
       </c>
       <c r="C78" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D78" t="n">
-        <v>1.3044545353947104E-4</v>
+        <v>7.118639202404476E-5</v>
       </c>
     </row>
     <row r="79">
@@ -1522,10 +1516,10 @@
         <v>113</v>
       </c>
       <c r="C79" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D79" t="n">
-        <v>9.382288586223236E-5</v>
+        <v>4.987635832806489E-5</v>
       </c>
     </row>
     <row r="80">
@@ -1536,66 +1530,38 @@
         <v>114</v>
       </c>
       <c r="C80" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="D80" t="n">
-        <v>6.68585666331496E-5</v>
+        <v>3.4606648159877496E-5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B81" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C81" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D81" t="n">
-        <v>4.7203453057844376E-5</v>
+        <v>2.3778879399603086E-5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
         <v>117</v>
       </c>
       <c r="C82" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>3.301861938558857E-5</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>116</v>
-      </c>
-      <c r="B83" t="s">
-        <v>118</v>
-      </c>
-      <c r="C83" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" t="n">
-        <v>2.288297478250206E-5</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>116</v>
-      </c>
-      <c r="B84" t="s">
-        <v>119</v>
-      </c>
-      <c r="C84" t="s">
-        <v>35</v>
-      </c>
-      <c r="D84" t="n">
-        <v>1.5712109037655242E-5</v>
+        <v>1.6180438057214144E-5</v>
       </c>
     </row>
   </sheetData>

--- a/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
+++ b/Test_Sets/Project_Sets/src/main/resources/projects60.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="120">
   <si>
     <t>Supervisor</t>
   </si>
@@ -26,346 +26,352 @@
     <t>Probability</t>
   </si>
   <si>
-    <t>The Artful Dodger</t>
-  </si>
-  <si>
-    <t>Oliver Twist and the Dagon mythos</t>
+    <t>Fred Flintstone</t>
+  </si>
+  <si>
+    <t>Bedrock and the Dagon mythos</t>
   </si>
   <si>
     <t>DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Victorian literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dickensian fiction and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Courtney Love</t>
-  </si>
-  <si>
-    <t>Rock music and the Cthulu mythos</t>
+    <t xml:space="preserve"> Neolithic times and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>pedalling engine-less cars in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Ridley Scott</t>
+  </si>
+  <si>
+    <t>Hollywood and the Cthulu mythos</t>
   </si>
   <si>
     <t>CS</t>
   </si>
   <si>
-    <t xml:space="preserve"> Alternative Rock and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>playing grungy music in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Rush Limbaugh</t>
-  </si>
-  <si>
-    <t>the Right and the Cthulu-Dagon mythos</t>
+    <t xml:space="preserve"> Special Effects and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making fantasy movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Del Boy Trotter</t>
+  </si>
+  <si>
+    <t>Only Fools and Horses  and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  British comedy and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British humour and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>P. T. Barnum</t>
+  </si>
+  <si>
+    <t>the Circus and the Cthulu-Dagon mythos</t>
   </si>
   <si>
     <t>CS+DS</t>
   </si>
   <si>
-    <t xml:space="preserve"> the Republicans and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> American politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Leo Tolstoy</t>
-  </si>
-  <si>
-    <t>Russian literature and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> War And Peace and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>writing Russian novels in Cthulhu-worshipping societies</t>
+    <t xml:space="preserve"> Showmanship and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting circus attractions in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Bernard Madoff</t>
+  </si>
+  <si>
+    <t>Investment Funds and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Investments and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finance and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Megan Fox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Acting and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>starring in Hollywood movies in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Popeye</t>
+  </si>
+  <si>
+    <t>Thimble Theatre and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>foiling the schemes of evil villains in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> defending the weak in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Frank Zappa</t>
+  </si>
+  <si>
+    <t>Experimental music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing experimental songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing experimental songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Baron Munchausen</t>
+  </si>
+  <si>
+    <t>German literature and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>telling tall tales in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> inventing lies in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>William Shakespeare</t>
+  </si>
+  <si>
+    <t>English literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elizabethan theatre and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing plays in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Johann von Goethe</t>
+  </si>
+  <si>
+    <t>German literature and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Romantic poetry and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>writing poetry in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Michael Corleone</t>
+  </si>
+  <si>
+    <t>The Godfather and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Mafia and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>running a crime family in Dagon-worshipping societies</t>
   </si>
   <si>
     <t>Captain William Bligh</t>
   </si>
   <si>
-    <t>Mutiny on the Bounty and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Politics and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> British history and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Harry Houdini</t>
-  </si>
-  <si>
-    <t>Escapology and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Stage Magic and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Magic and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Jeffrey Lebowski</t>
-  </si>
-  <si>
-    <t>Bowling and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>going bowling in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> drinking White Russians in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Dan Quayle</t>
+    <t>Mutiny on the Bounty and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Politics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> British history and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>George Harrison</t>
+  </si>
+  <si>
+    <t>The Beatles and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>playing guitar in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Christina Aguilera</t>
+  </si>
+  <si>
+    <t>Pop Music and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>singing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing pop songs in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Gregor Mendel</t>
+  </si>
+  <si>
+    <t>Science and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Genetics and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>tending the garden in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Kanye West</t>
+  </si>
+  <si>
+    <t>Rap music and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hip-Hop and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>singing Hipbop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jay Z</t>
+  </si>
+  <si>
+    <t>producing Hipbop records in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> singing Hipbop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Jeff Koons</t>
+  </si>
+  <si>
+    <t>American art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Modern art and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>making modern art in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>H.P. Lovecraft</t>
+  </si>
+  <si>
+    <t>Horror fiction and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing purple prose in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> writing horror stories in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>R2D2</t>
+  </si>
+  <si>
+    <t>Star Wars and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>eluding imperial storm-troopers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> carrying secret plans in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Madeleine Albright</t>
+  </si>
+  <si>
+    <t>American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fighting for democracy in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Tim Berners-Lee</t>
+  </si>
+  <si>
+    <t>The World Wide Web and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The Internet and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Computers and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Quasimodo</t>
+  </si>
+  <si>
+    <t>French history and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> French politics and the Dagon mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> pre-Revolutionary France and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>Dexter Morgan</t>
+  </si>
+  <si>
+    <t>Miami-Dade and the Dagon mythos</t>
+  </si>
+  <si>
+    <t>chasing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> killing murderers in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>John Wilkes Booth</t>
   </si>
   <si>
     <t>American politics and the Cthulu-Dagon mythos</t>
   </si>
   <si>
-    <t xml:space="preserve"> the Right and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>campaigning for the senate in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Norma Desmond</t>
-  </si>
-  <si>
-    <t>Sunset Boulevard and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Hollywood and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>clinging to past dreams in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Anton Chekov</t>
-  </si>
-  <si>
-    <t>writing plays about the middle classes in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jeff Koons</t>
-  </si>
-  <si>
-    <t>American art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Modern art and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>making modern art in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Voltaire</t>
-  </si>
-  <si>
-    <t>the Enlightenment and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>promoting liberal values in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing novels in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Fletcher Christian</t>
-  </si>
-  <si>
-    <t>expressing dissent in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> plotting mutinies in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> undermining authority in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Ringo Starr</t>
-  </si>
-  <si>
-    <t>The Beatles and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Pop music and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>singing pop songs in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Kellyanne Conway</t>
-  </si>
-  <si>
-    <t>offering advice in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Optimus Prime</t>
-  </si>
-  <si>
-    <t>Transformers and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Autobots and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>fighting decepticons in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Nigel Farage</t>
-  </si>
-  <si>
-    <t>British politics and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Brexit and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Waylon Smithers</t>
-  </si>
-  <si>
-    <t>Nuclear Power and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The Simpsons and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Springfield and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>Agent Phil Coulson</t>
-  </si>
-  <si>
-    <t>S.H.I.E.L.D. and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Marvel Comics and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>appreciating vintage collectibles in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Jim Carrey</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>gurning for the camera in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>Children's tales and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>cooking for friends in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Stephen Colbert</t>
-  </si>
-  <si>
-    <t>Comedy Central and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Comedy and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>Ozzy Osbourne</t>
-  </si>
-  <si>
-    <t>Heavy Metal and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>singing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> writing rock songs in Cthulhu-worshipping societies</t>
-  </si>
-  <si>
-    <t>Plato</t>
-  </si>
-  <si>
-    <t>Ancient philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Greek philosophy and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> the Ancient world and the Cthulu mythos</t>
-  </si>
-  <si>
-    <t>Jesus Christ</t>
-  </si>
-  <si>
-    <t>Christianity and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>preaching tolerance in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> spreading Christianity in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Megan Fox</t>
-  </si>
-  <si>
-    <t>Hollywood and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Acting and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>starring in Hollywood movies in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Monsieur Hulot</t>
-  </si>
-  <si>
-    <t>French comedy and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> French humour and the Dagon mythos</t>
-  </si>
-  <si>
-    <t>causing mayhem in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>John McEnroe</t>
-  </si>
-  <si>
-    <t>Tennis and the Cthulu-Dagon mythos</t>
-  </si>
-  <si>
-    <t>whining at umpires in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> delivering forehand slams in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Holly Golightly</t>
-  </si>
-  <si>
-    <t>American literature and the Dagon mythos</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> climbing social ladders in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t>Lindsay Lohan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> driving under the influence in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> starring in Hollywood movies  in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+    <t>assassinating presidents in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>James Joyce</t>
+  </si>
+  <si>
+    <t>Modern literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Irish literature and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>writing modern fiction in Cthulhu-worshipping societies</t>
+  </si>
+  <si>
+    <t>Don King</t>
+  </si>
+  <si>
+    <t>Boxing and the Cthulu-Dagon mythos</t>
+  </si>
+  <si>
+    <t>promoting boxing fights in Cthulhu-worshipping societies vs in Dagon-worshipping societies</t>
+  </si>
+  <si>
+    <t>Richard Nixon</t>
+  </si>
+  <si>
+    <t>the Right and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> the Republicans and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> American politics and the Cthulu mythos</t>
+  </si>
+  <si>
+    <t>Ann Coulter</t>
+  </si>
+  <si>
+    <t>ranting about liberals in Cthulhu-worshipping societies</t>
   </si>
 </sst>
 </file>
@@ -441,7 +447,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>1.6180438057213975E-5</v>
+        <v>1.5712109037655364E-5</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>2.3778879399602822E-5</v>
+        <v>2.2882974782502155E-5</v>
       </c>
     </row>
     <row r="4">
@@ -469,7 +475,7 @@
         <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.4606648159877875E-5</v>
+        <v>3.301861938558835E-5</v>
       </c>
     </row>
     <row r="5">
@@ -483,7 +489,7 @@
         <v>11</v>
       </c>
       <c r="D5" t="n">
-        <v>4.987635832806494E-5</v>
+        <v>4.720345305784465E-5</v>
       </c>
     </row>
     <row r="6">
@@ -497,7 +503,7 @@
         <v>11</v>
       </c>
       <c r="D6" t="n">
-        <v>7.118639202404476E-5</v>
+        <v>6.685856663314933E-5</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +517,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>1.0061582101984621E-4</v>
+        <v>9.382288586223318E-5</v>
       </c>
     </row>
     <row r="8">
@@ -522,10 +528,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>1.408324121491223E-4</v>
+        <v>1.3044545353947022E-4</v>
       </c>
     </row>
     <row r="9">
@@ -533,13 +539,13 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>1.9521177506472853E-4</v>
+        <v>1.7968736598590222E-4</v>
       </c>
     </row>
     <row r="10">
@@ -547,55 +553,55 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>2.679640014793518E-4</v>
+        <v>2.4523055113574927E-4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
-        <v>3.6426206953262116E-4</v>
+        <v>3.3158894511433506E-4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
-        <v>4.903639110736733E-4</v>
+        <v>4.4421574738256683E-4</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D13" t="n">
-        <v>6.537174894502378E-4</v>
+        <v>5.895983997792394E-4</v>
       </c>
     </row>
     <row r="14">
@@ -609,7 +615,7 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>8.630357048031102E-4</v>
+        <v>7.753308807374694E-4</v>
       </c>
     </row>
     <row r="15">
@@ -623,7 +629,7 @@
         <v>11</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001128325696221504</v>
+        <v>0.001010151023383744</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +643,7 @@
         <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0014608554708166726</v>
+        <v>0.001303929094273841</v>
       </c>
     </row>
     <row r="17">
@@ -648,10 +654,10 @@
         <v>28</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0018730401280102312</v>
+        <v>0.0016675930842951102</v>
       </c>
     </row>
     <row r="18">
@@ -662,29 +668,29 @@
         <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0023782306457439924</v>
+        <v>0.0021129763580244017</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D19" t="n">
-        <v>0.002990390607854103</v>
+        <v>0.002652574764543515</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
         <v>32</v>
@@ -693,12 +699,12 @@
         <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003723650652097451</v>
+        <v>0.0032992032661826737</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
         <v>33</v>
@@ -707,68 +713,68 @@
         <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0045917369426470185</v>
+        <v>0.004065546738784504</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
-        <v>0.005607278562949243</v>
+        <v>0.00496360585532948</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D23" t="n">
-        <v>0.006781009089692907</v>
+        <v>0.006004046735196597</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
         <v>37</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D24" t="n">
-        <v>0.008120889185335288</v>
+        <v>0.007195471982361319</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00963118900819615</v>
+        <v>0.008543640303901062</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -777,12 +783,12 @@
         <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>0.011311580526535081</v>
+        <v>0.010050671362960006</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" t="s">
         <v>41</v>
@@ -791,301 +797,301 @@
         <v>6</v>
       </c>
       <c r="D27" t="n">
-        <v>0.013156299216547707</v>
+        <v>0.011714280995660964</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D28" t="n">
-        <v>0.015153440850846023</v>
+        <v>0.013527098443184227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29" t="s">
         <v>44</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D29" t="n">
-        <v>0.017284460953587544</v>
+        <v>0.015476120857530695</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B30" t="s">
         <v>45</v>
       </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D30" t="n">
-        <v>0.019523941056586502</v>
+        <v>0.017542360183192884</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
         <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D31" t="n">
-        <v>0.021839676569562372</v>
+        <v>0.019700732972561807</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>48</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D32" t="n">
-        <v>0.024193125825513917</v>
+        <v>0.021920234466040966</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
         <v>49</v>
       </c>
-      <c r="B33" t="s">
-        <v>50</v>
-      </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D33" t="n">
-        <v>0.02654023922951171</v>
+        <v>0.02416442447891065</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B34" t="s">
         <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D34" t="n">
-        <v>0.028832662604103665</v>
+        <v>0.026392234869326625</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B35" t="s">
         <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D35" t="n">
-        <v>0.031019281544431065</v>
+        <v>0.028559087662930138</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
         <v>53</v>
       </c>
-      <c r="B36" t="s">
-        <v>54</v>
-      </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D36" t="n">
-        <v>0.03304804608301548</v>
+        <v>0.03061829073868061</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D37" t="n">
-        <v>0.03486798968970481</v>
+        <v>0.032522656101615754</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B38" t="s">
         <v>56</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D38" t="n">
-        <v>0.03643133608136698</v>
+        <v>0.034226266096593155</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
         <v>57</v>
       </c>
-      <c r="B39" t="s">
-        <v>58</v>
-      </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>0.03769557371443964</v>
+        <v>0.035686297332261474</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
         <v>59</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
-        <v>0.038625372884032526</v>
+        <v>0.036864802230996724</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
         <v>60</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D41" t="n">
-        <v>0.03919422501328561</v>
+        <v>0.03773034521835793</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
         <v>61</v>
       </c>
-      <c r="B42" t="s">
-        <v>62</v>
-      </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D42" t="n">
-        <v>0.03938569804998034</v>
+        <v>0.0382593952557892</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
         <v>63</v>
       </c>
-      <c r="B43" t="s">
-        <v>64</v>
-      </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D43" t="n">
-        <v>0.03919422501328543</v>
+        <v>0.03843738866572659</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03862537288403233</v>
+        <v>0.03825939525578885</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03769557371443988</v>
+        <v>0.03773034521835811</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" t="s">
         <v>67</v>
       </c>
-      <c r="B46" t="s">
-        <v>68</v>
-      </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D46" t="n">
-        <v>0.036431336081367116</v>
+        <v>0.03686480223099682</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D47" t="n">
-        <v>0.03486798968970459</v>
+        <v>0.03568629733226136</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D48" t="n">
-        <v>0.03304804608301537</v>
+        <v>0.0342262660965931</v>
       </c>
     </row>
     <row r="49">
@@ -1093,13 +1099,13 @@
         <v>70</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D49" t="n">
-        <v>0.031019281544431176</v>
+        <v>0.03252265610161595</v>
       </c>
     </row>
     <row r="50">
@@ -1107,27 +1113,27 @@
         <v>70</v>
       </c>
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D50" t="n">
-        <v>0.028832662604103887</v>
+        <v>0.030618290738680443</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D51" t="n">
-        <v>0.026540239229511597</v>
+        <v>0.02855908766293025</v>
       </c>
     </row>
     <row r="52">
@@ -1135,13 +1141,13 @@
         <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D52" t="n">
-        <v>0.02419312582551375</v>
+        <v>0.026392234869326403</v>
       </c>
     </row>
     <row r="53">
@@ -1149,97 +1155,97 @@
         <v>74</v>
       </c>
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>0.021839676569562594</v>
+        <v>0.024164424478910818</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
         <v>78</v>
       </c>
-      <c r="B54" t="s">
-        <v>79</v>
-      </c>
       <c r="C54" t="s">
         <v>11</v>
       </c>
       <c r="D54" t="n">
-        <v>0.019523941056586558</v>
+        <v>0.021920234466040966</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="n">
-        <v>0.017284460953587544</v>
+        <v>0.01970073297256164</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
         <v>11</v>
       </c>
       <c r="D56" t="n">
-        <v>0.015153440850845912</v>
+        <v>0.01754236018319294</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>81</v>
+      </c>
+      <c r="B57" t="s">
         <v>82</v>
       </c>
-      <c r="B57" t="s">
-        <v>83</v>
-      </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D57" t="n">
-        <v>0.013156299216547596</v>
+        <v>0.01547612085753075</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D58" t="n">
-        <v>0.011311580526535303</v>
+        <v>0.013527098443184116</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D59" t="n">
-        <v>0.00963118900819615</v>
+        <v>0.011714280995660964</v>
       </c>
     </row>
     <row r="60">
@@ -1247,69 +1253,69 @@
         <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D60" t="n">
-        <v>0.008120889185335226</v>
+        <v>0.010050671362960117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D61" t="n">
-        <v>0.006781009089692952</v>
+        <v>0.008543640303900951</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>85</v>
+      </c>
+      <c r="B62" t="s">
         <v>88</v>
       </c>
-      <c r="B62" t="s">
-        <v>90</v>
-      </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D62" t="n">
-        <v>0.00560727856294926</v>
+        <v>0.007195471982361333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
         <v>11</v>
       </c>
       <c r="D63" t="n">
-        <v>0.004591736942647008</v>
+        <v>0.006004046735196614</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
         <v>11</v>
       </c>
       <c r="D64" t="n">
-        <v>0.0037236506520974336</v>
+        <v>0.004963605855329449</v>
       </c>
     </row>
     <row r="65">
@@ -1317,13 +1323,13 @@
         <v>92</v>
       </c>
       <c r="B65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C65" t="s">
         <v>11</v>
       </c>
       <c r="D65" t="n">
-        <v>0.0029903906078541202</v>
+        <v>0.004065546738784509</v>
       </c>
     </row>
     <row r="66">
@@ -1331,27 +1337,27 @@
         <v>92</v>
       </c>
       <c r="B66" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C66" t="s">
         <v>11</v>
       </c>
       <c r="D66" t="n">
-        <v>0.002378230645744003</v>
+        <v>0.0032992032661826754</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0018730401280102268</v>
+        <v>0.002652574764543508</v>
       </c>
     </row>
     <row r="68">
@@ -1359,13 +1365,13 @@
         <v>96</v>
       </c>
       <c r="B68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0014608554708166648</v>
+        <v>0.002112976358024406</v>
       </c>
     </row>
     <row r="69">
@@ -1373,27 +1379,27 @@
         <v>96</v>
       </c>
       <c r="B69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0011283256962215092</v>
+        <v>0.0016675930842951162</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D70" t="n">
-        <v>8.630357048031172E-4</v>
+        <v>0.0013039290942738306</v>
       </c>
     </row>
     <row r="71">
@@ -1401,13 +1407,13 @@
         <v>100</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D71" t="n">
-        <v>6.537174894502345E-4</v>
+        <v>0.0010101510233837515</v>
       </c>
     </row>
     <row r="72">
@@ -1415,27 +1421,27 @@
         <v>100</v>
       </c>
       <c r="B72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C72" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D72" t="n">
-        <v>4.903639110736713E-4</v>
+        <v>7.753308807374672E-4</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
         <v>6</v>
       </c>
       <c r="D73" t="n">
-        <v>3.6426206953262495E-4</v>
+        <v>5.895983997792342E-4</v>
       </c>
     </row>
     <row r="74">
@@ -1443,13 +1449,13 @@
         <v>104</v>
       </c>
       <c r="B74" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D74" t="n">
-        <v>2.679640014793532E-4</v>
+        <v>4.4421574738256965E-4</v>
       </c>
     </row>
     <row r="75">
@@ -1457,111 +1463,139 @@
         <v>104</v>
       </c>
       <c r="B75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C75" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D75" t="n">
-        <v>1.9521177506472853E-4</v>
+        <v>3.315889451143343E-4</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>107</v>
+      </c>
+      <c r="B76" t="s">
         <v>108</v>
       </c>
-      <c r="B76" t="s">
-        <v>109</v>
-      </c>
       <c r="C76" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D76" t="n">
-        <v>1.408324121491216E-4</v>
+        <v>2.452305511357472E-4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D77" t="n">
-        <v>1.0061582101984691E-4</v>
+        <v>1.7968736598590222E-4</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B78" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D78" t="n">
-        <v>7.118639202404476E-5</v>
+        <v>1.3044545353947104E-4</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79" t="s">
         <v>112</v>
       </c>
-      <c r="B79" t="s">
-        <v>113</v>
-      </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D79" t="n">
-        <v>4.987635832806489E-5</v>
+        <v>9.382288586223236E-5</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C80" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D80" t="n">
-        <v>3.4606648159877496E-5</v>
+        <v>6.68585666331496E-5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" t="s">
         <v>115</v>
       </c>
-      <c r="B81" t="s">
-        <v>116</v>
-      </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D81" t="n">
-        <v>2.3778879399603086E-5</v>
+        <v>4.7203453057844376E-5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B82" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3.301861938558857E-5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83" t="s">
         <v>117</v>
       </c>
-      <c r="C82" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" t="n">
-        <v>1.6180438057214144E-5</v>
+      <c r="C83" t="s">
+        <v>11</v>
+      </c>
+      <c r="D83" t="n">
+        <v>2.288297478250206E-5</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" t="s">
+        <v>119</v>
+      </c>
+      <c r="C84" t="s">
+        <v>11</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.5712109037655242E-5</v>
       </c>
     </row>
   </sheetData>
